--- a/database/maximum_flow_data.xlsx
+++ b/database/maximum_flow_data.xlsx
@@ -10,7 +10,7 @@
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Node!$A$1:$Y$214</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Edge!$A$1:$E$997</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Edge!$A$1:$E$998</definedName>
     <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Road!$A$1:$U$81</definedName>
     <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">'Trang tính5'!$A$1:$A$1000</definedName>
   </definedNames>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="950">
   <si>
     <t>Node</t>
   </si>
@@ -2080,6 +2080,9 @@
   </si>
   <si>
     <t>10.7928977,106.653385;10.7906074,106.657501</t>
+  </si>
+  <si>
+    <t>Hoàng Văn Thụ</t>
   </si>
   <si>
     <t>10.7928977,106.653385;10.7948138,106.6553713</t>
@@ -34636,28 +34639,28 @@
     </row>
     <row r="155">
       <c r="A155" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>462</v>
+        <v>5</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>564</v>
       </c>
       <c r="C155" s="4">
-        <v>8181.0</v>
+        <v>3158.0</v>
       </c>
       <c r="D155" s="5" t="str">
         <f t="array" ref="D155">XLOOKUP(C155,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Nam Kì Khởi Nghĩa (trước DBPhu)</v>
-      </c>
-      <c r="E155" s="5" t="s">
-        <v>679</v>
+        <v>Lê Văn Sỹ (Trần Quang Diệu - Hoàng Văn Thụ)</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B156" s="5" t="s">
         <v>462</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="C156" s="4">
         <v>8181.0</v>
@@ -34672,28 +34675,28 @@
     </row>
     <row r="157">
       <c r="A157" s="5" t="s">
-        <v>135</v>
+        <v>462</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>154</v>
+        <v>68</v>
       </c>
       <c r="C157" s="4">
-        <v>5263.0</v>
+        <v>8181.0</v>
       </c>
       <c r="D157" s="5" t="str">
         <f t="array" ref="D157">XLOOKUP(C157,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Cách Mạng Tháng 8 </v>
+        <v>Nam Kì Khởi Nghĩa (trước DBPhu)</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B158" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="C158" s="4">
         <v>5263.0</v>
@@ -34707,29 +34710,29 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>539</v>
+      <c r="A159" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="C159" s="4">
-        <v>4090.0</v>
+        <v>5263.0</v>
       </c>
       <c r="D159" s="5" t="str">
         <f t="array" ref="D159">XLOOKUP(C159,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Lý Thường Kiệt</v>
-      </c>
-      <c r="E159" s="4" t="s">
-        <v>681</v>
+        <v>Cách Mạng Tháng 8 </v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B160" s="4" t="s">
         <v>539</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>500</v>
       </c>
       <c r="C160" s="4">
         <v>4090.0</v>
@@ -34743,47 +34746,47 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>208</v>
+      <c r="A161" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>500</v>
       </c>
       <c r="C161" s="4">
-        <v>8050.0</v>
+        <v>4090.0</v>
       </c>
       <c r="D161" s="5" t="str">
         <f t="array" ref="D161">XLOOKUP(C161,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Võ Thị Sáu</v>
-      </c>
-      <c r="E161" s="5" t="s">
-        <v>682</v>
+        <v>Lý Thường Kiệt</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="5" t="s">
-        <v>68</v>
+        <v>176</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>518</v>
+        <v>208</v>
       </c>
       <c r="C162" s="4">
-        <v>6681.0</v>
+        <v>8050.0</v>
       </c>
       <c r="D162" s="5" t="str">
         <f t="array" ref="D162">XLOOKUP(C162,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Nguyễn Văn Trỗi </v>
+        <v>Võ Thị Sáu</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B163" s="5" t="s">
         <v>518</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="C163" s="4">
         <v>6681.0</v>
@@ -34798,46 +34801,46 @@
     </row>
     <row r="164">
       <c r="A164" s="5" t="s">
-        <v>339</v>
+        <v>518</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>176</v>
+        <v>68</v>
       </c>
       <c r="C164" s="4">
-        <v>8050.0</v>
+        <v>6681.0</v>
       </c>
       <c r="D164" s="5" t="str">
         <f t="array" ref="D164">XLOOKUP(C164,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Võ Thị Sáu</v>
+        <v>Nguyễn Văn Trỗi </v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>539</v>
+      <c r="A165" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>176</v>
       </c>
       <c r="C165" s="4">
-        <v>7390.0</v>
+        <v>8050.0</v>
       </c>
       <c r="D165" s="5" t="str">
         <f t="array" ref="D165">XLOOKUP(C165,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Lý Thường Kiệt (Từ vòng xoay - HVThu)</v>
-      </c>
-      <c r="E165" s="4" t="s">
-        <v>685</v>
+        <v>Võ Thị Sáu</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B166" s="4" t="s">
         <v>539</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>260</v>
       </c>
       <c r="C166" s="4">
         <v>7390.0</v>
@@ -34852,28 +34855,28 @@
     </row>
     <row r="167">
       <c r="A167" s="4" t="s">
-        <v>135</v>
+        <v>539</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>260</v>
       </c>
       <c r="C167" s="4">
-        <v>5263.0</v>
+        <v>7390.0</v>
       </c>
       <c r="D167" s="5" t="str">
         <f t="array" ref="D167">XLOOKUP(C167,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Cách Mạng Tháng 8 </v>
+        <v>Lý Thường Kiệt (Từ vòng xoay - HVThu)</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B168" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="C168" s="4">
         <v>5263.0</v>
@@ -34891,32 +34894,31 @@
         <v>260</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="C169" s="4">
-        <v>10090.0</v>
-      </c>
-      <c r="D169" s="5">
+        <v>5263.0</v>
+      </c>
+      <c r="D169" s="5" t="str">
         <f t="array" ref="D169">XLOOKUP(C169,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>0</v>
+        <v>Cách Mạng Tháng 8 </v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="4" t="s">
-        <v>181</v>
+        <v>260</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>673</v>
+        <v>22</v>
       </c>
       <c r="C170" s="4">
-        <v>2181.0</v>
-      </c>
-      <c r="D170" s="5" t="str">
-        <f t="array" ref="D170">XLOOKUP(C170,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Âu Cơ</v>
+        <v>10090.0</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>687</v>
       </c>
       <c r="E170" s="4" t="s">
         <v>688</v>
@@ -34924,10 +34926,10 @@
     </row>
     <row r="171">
       <c r="A171" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B171" s="4" t="s">
         <v>673</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>181</v>
       </c>
       <c r="C171" s="4">
         <v>2181.0</v>
@@ -34937,33 +34939,33 @@
         <v>Âu Cơ</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B172" s="5" t="s">
-        <v>314</v>
+      <c r="A172" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="C172" s="4">
-        <v>3158.0</v>
+        <v>2181.0</v>
       </c>
       <c r="D172" s="5" t="str">
         <f t="array" ref="D172">XLOOKUP(C172,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Lê Văn Sỹ (Trần Quang Diệu - Hoàng Văn Thụ)</v>
-      </c>
-      <c r="E172" s="5" t="s">
+        <v>Âu Cơ</v>
+      </c>
+      <c r="E172" s="4" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B173" s="5" t="s">
         <v>314</v>
-      </c>
-      <c r="B173" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="C173" s="4">
         <v>3158.0</v>
@@ -34973,51 +34975,51 @@
         <v>Lê Văn Sỹ (Trần Quang Diệu - Hoàng Văn Thụ)</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>260</v>
+      <c r="A174" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C174" s="4">
-        <v>3632.0</v>
+        <v>3158.0</v>
       </c>
       <c r="D174" s="5" t="str">
         <f t="array" ref="D174">XLOOKUP(C174,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Trường Chinh (Ngã 3 Âu Cơ - Ga Bảy Hiền)</v>
-      </c>
-      <c r="E174" s="4" t="s">
+        <v>Lê Văn Sỹ (Trần Quang Diệu - Hoàng Văn Thụ)</v>
+      </c>
+      <c r="E174" s="5" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B175" s="5" t="s">
-        <v>518</v>
+      <c r="A175" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>260</v>
       </c>
       <c r="C175" s="4">
-        <v>6681.0</v>
+        <v>3632.0</v>
       </c>
       <c r="D175" s="5" t="str">
         <f t="array" ref="D175">XLOOKUP(C175,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Nguyễn Văn Trỗi </v>
-      </c>
-      <c r="E175" s="5" t="s">
+        <v>Trường Chinh (Ngã 3 Âu Cơ - Ga Bảy Hiền)</v>
+      </c>
+      <c r="E175" s="4" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B176" s="5" t="s">
         <v>518</v>
-      </c>
-      <c r="B176" s="5" t="s">
-        <v>237</v>
       </c>
       <c r="C176" s="4">
         <v>6681.0</v>
@@ -35027,22 +35029,22 @@
         <v>Nguyễn Văn Trỗi </v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="5" t="s">
-        <v>22</v>
+        <v>518</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>407</v>
+        <v>237</v>
       </c>
       <c r="C177" s="4">
-        <v>5045.0</v>
+        <v>6681.0</v>
       </c>
       <c r="D177" s="5" t="str">
         <f t="array" ref="D177">XLOOKUP(C177,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Hoàng Văn Thụ </v>
+        <v>Nguyễn Văn Trỗi </v>
       </c>
       <c r="E177" s="5" t="s">
         <v>692</v>
@@ -35050,10 +35052,10 @@
     </row>
     <row r="178">
       <c r="A178" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B178" s="5" t="s">
         <v>407</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="C178" s="4">
         <v>5045.0</v>
@@ -35063,22 +35065,22 @@
         <v>Hoàng Văn Thụ </v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="5" t="s">
-        <v>96</v>
+        <v>407</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>237</v>
+        <v>22</v>
       </c>
       <c r="C179" s="4">
-        <v>6681.0</v>
+        <v>5045.0</v>
       </c>
       <c r="D179" s="5" t="str">
         <f t="array" ref="D179">XLOOKUP(C179,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Nguyễn Văn Trỗi </v>
+        <v>Hoàng Văn Thụ </v>
       </c>
       <c r="E179" s="5" t="s">
         <v>693</v>
@@ -35086,10 +35088,10 @@
     </row>
     <row r="180">
       <c r="A180" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B180" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="B180" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="C180" s="4">
         <v>6681.0</v>
@@ -35099,22 +35101,22 @@
         <v>Nguyễn Văn Trỗi </v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="5" t="s">
-        <v>314</v>
+        <v>237</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>412</v>
+        <v>96</v>
       </c>
       <c r="C181" s="4">
-        <v>3158.0</v>
+        <v>6681.0</v>
       </c>
       <c r="D181" s="5" t="str">
         <f t="array" ref="D181">XLOOKUP(C181,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Lê Văn Sỹ (Trần Quang Diệu - Hoàng Văn Thụ)</v>
+        <v>Nguyễn Văn Trỗi </v>
       </c>
       <c r="E181" s="5" t="s">
         <v>694</v>
@@ -35122,10 +35124,10 @@
     </row>
     <row r="182">
       <c r="A182" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B182" s="5" t="s">
         <v>412</v>
-      </c>
-      <c r="B182" s="5" t="s">
-        <v>314</v>
       </c>
       <c r="C182" s="4">
         <v>3158.0</v>
@@ -35135,7 +35137,7 @@
         <v>Lê Văn Sỹ (Trần Quang Diệu - Hoàng Văn Thụ)</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="183">
@@ -35143,7 +35145,7 @@
         <v>412</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>531</v>
+        <v>314</v>
       </c>
       <c r="C183" s="4">
         <v>3158.0</v>
@@ -35158,10 +35160,10 @@
     </row>
     <row r="184">
       <c r="A184" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B184" s="5" t="s">
         <v>531</v>
-      </c>
-      <c r="B184" s="5" t="s">
-        <v>412</v>
       </c>
       <c r="C184" s="4">
         <v>3158.0</v>
@@ -35171,22 +35173,22 @@
         <v>Lê Văn Sỹ (Trần Quang Diệu - Hoàng Văn Thụ)</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="5" t="s">
-        <v>96</v>
+        <v>531</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>349</v>
+        <v>412</v>
       </c>
       <c r="C185" s="4">
-        <v>6681.0</v>
+        <v>3158.0</v>
       </c>
       <c r="D185" s="5" t="str">
         <f t="array" ref="D185">XLOOKUP(C185,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Nguyễn Văn Trỗi </v>
+        <v>Lê Văn Sỹ (Trần Quang Diệu - Hoàng Văn Thụ)</v>
       </c>
       <c r="E185" s="5" t="s">
         <v>696</v>
@@ -35194,10 +35196,10 @@
     </row>
     <row r="186">
       <c r="A186" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B186" s="5" t="s">
         <v>349</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="C186" s="4">
         <v>6681.0</v>
@@ -35207,22 +35209,22 @@
         <v>Nguyễn Văn Trỗi </v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="5" t="s">
-        <v>407</v>
+        <v>349</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>531</v>
+        <v>96</v>
       </c>
       <c r="C187" s="4">
-        <v>5040.0</v>
-      </c>
-      <c r="D187" s="5">
+        <v>6681.0</v>
+      </c>
+      <c r="D187" s="5" t="str">
         <f t="array" ref="D187">XLOOKUP(C187,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>0</v>
+        <v>Nguyễn Văn Trỗi </v>
       </c>
       <c r="E187" s="5" t="s">
         <v>697</v>
@@ -35230,35 +35232,35 @@
     </row>
     <row r="188">
       <c r="A188" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B188" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="B188" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="C188" s="4">
-        <v>5040.0</v>
-      </c>
-      <c r="D188" s="5">
+        <v>5045.0</v>
+      </c>
+      <c r="D188" s="5" t="str">
         <f t="array" ref="D188">XLOOKUP(C188,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>0</v>
+        <v>Hoàng Văn Thụ </v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="5" t="s">
-        <v>272</v>
+        <v>531</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>349</v>
+        <v>407</v>
       </c>
       <c r="C189" s="4">
-        <v>5040.0</v>
-      </c>
-      <c r="D189" s="5">
+        <v>5045.0</v>
+      </c>
+      <c r="D189" s="5" t="str">
         <f t="array" ref="D189">XLOOKUP(C189,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>0</v>
+        <v>Hoàng Văn Thụ </v>
       </c>
       <c r="E189" s="5" t="s">
         <v>698</v>
@@ -35266,20 +35268,20 @@
     </row>
     <row r="190">
       <c r="A190" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B190" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="B190" s="5" t="s">
-        <v>272</v>
-      </c>
       <c r="C190" s="4">
-        <v>5040.0</v>
-      </c>
-      <c r="D190" s="5">
+        <v>5045.0</v>
+      </c>
+      <c r="D190" s="5" t="str">
         <f t="array" ref="D190">XLOOKUP(C190,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>0</v>
+        <v>Hoàng Văn Thụ </v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="191">
@@ -35287,14 +35289,14 @@
         <v>349</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="C191" s="4">
-        <v>12163.0</v>
+        <v>5045.0</v>
       </c>
       <c r="D191" s="5" t="str">
         <f t="array" ref="D191">XLOOKUP(C191,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Phan Đình Giót (trước ngã 3 Phan Thúc Duyện</v>
+        <v>Hoàng Văn Thụ </v>
       </c>
       <c r="E191" s="5" t="s">
         <v>699</v>
@@ -35302,46 +35304,46 @@
     </row>
     <row r="192">
       <c r="A192" s="5" t="s">
-        <v>531</v>
+        <v>349</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>349</v>
+        <v>290</v>
       </c>
       <c r="C192" s="4">
-        <v>13090.0</v>
+        <v>12163.0</v>
       </c>
       <c r="D192" s="5" t="str">
         <f t="array" ref="D192">XLOOKUP(C192,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Hoàng Văn Thụ (công viên)</v>
+        <v>Phan Đình Giót (trước ngã 3 Phan Thúc Duyện</v>
       </c>
       <c r="E192" s="5" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="B193" s="4" t="s">
-        <v>470</v>
+      <c r="A193" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>349</v>
       </c>
       <c r="C193" s="4">
-        <v>3632.0</v>
+        <v>13090.0</v>
       </c>
       <c r="D193" s="5" t="str">
         <f t="array" ref="D193">XLOOKUP(C193,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Trường Chinh (Ngã 3 Âu Cơ - Ga Bảy Hiền)</v>
-      </c>
-      <c r="E193" s="4" t="s">
-        <v>702</v>
+        <v>Hoàng Văn Thụ (công viên)</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="B194" s="4" t="s">
         <v>470</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>701</v>
       </c>
       <c r="C194" s="4">
         <v>3632.0</v>
@@ -35351,33 +35353,33 @@
         <v>Trường Chinh (Ngã 3 Âu Cơ - Ga Bảy Hiền)</v>
       </c>
       <c r="E194" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B195" s="4" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B195" s="5" t="s">
-        <v>531</v>
-      </c>
       <c r="C195" s="4">
-        <v>11863.0</v>
+        <v>3632.0</v>
       </c>
       <c r="D195" s="5" t="str">
         <f t="array" ref="D195">XLOOKUP(C195,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Cộng Hòa</v>
-      </c>
-      <c r="E195" s="5" t="s">
+        <v>Trường Chinh (Ngã 3 Âu Cơ - Ga Bảy Hiền)</v>
+      </c>
+      <c r="E195" s="4" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B196" s="5" t="s">
         <v>531</v>
-      </c>
-      <c r="B196" s="5" t="s">
-        <v>213</v>
       </c>
       <c r="C196" s="4">
         <v>11863.0</v>
@@ -35387,22 +35389,22 @@
         <v>Cộng Hòa</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>401</v>
+        <v>531</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="C197" s="4">
-        <v>12163.0</v>
+        <v>11863.0</v>
       </c>
       <c r="D197" s="5" t="str">
         <f t="array" ref="D197">XLOOKUP(C197,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Phan Đình Giót (trước ngã 3 Phan Thúc Duyện</v>
+        <v>Cộng Hòa</v>
       </c>
       <c r="E197" s="5" t="s">
         <v>704</v>
@@ -35410,17 +35412,17 @@
     </row>
     <row r="198">
       <c r="A198" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B198" s="5" t="s">
-        <v>368</v>
+        <v>290</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>401</v>
       </c>
       <c r="C198" s="4">
-        <v>11863.0</v>
+        <v>12163.0</v>
       </c>
       <c r="D198" s="5" t="str">
         <f t="array" ref="D198">XLOOKUP(C198,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Cộng Hòa</v>
+        <v>Phan Đình Giót (trước ngã 3 Phan Thúc Duyện</v>
       </c>
       <c r="E198" s="5" t="s">
         <v>705</v>
@@ -35428,10 +35430,10 @@
     </row>
     <row r="199">
       <c r="A199" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B199" s="5" t="s">
         <v>368</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>213</v>
       </c>
       <c r="C199" s="4">
         <v>11863.0</v>
@@ -35441,22 +35443,22 @@
         <v>Cộng Hòa</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="5" t="s">
-        <v>534</v>
+        <v>368</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>531</v>
+        <v>213</v>
       </c>
       <c r="C200" s="4">
-        <v>7200.0</v>
+        <v>11863.0</v>
       </c>
       <c r="D200" s="5" t="str">
         <f t="array" ref="D200">XLOOKUP(C200,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Trần Quốc Hoàn</v>
+        <v>Cộng Hòa</v>
       </c>
       <c r="E200" s="5" t="s">
         <v>706</v>
@@ -35464,28 +35466,28 @@
     </row>
     <row r="201">
       <c r="A201" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>401</v>
+        <v>534</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>531</v>
       </c>
       <c r="C201" s="4">
-        <v>2372.0</v>
+        <v>7200.0</v>
       </c>
       <c r="D201" s="5" t="str">
         <f t="array" ref="D201">XLOOKUP(C201,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Phổ Quang</v>
+        <v>Trần Quốc Hoàn</v>
       </c>
       <c r="E201" s="5" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="4" t="s">
+      <c r="A202" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B202" s="4" t="s">
         <v>401</v>
-      </c>
-      <c r="B202" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="C202" s="4">
         <v>2372.0</v>
@@ -35495,7 +35497,7 @@
         <v>Phổ Quang</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="203">
@@ -35503,32 +35505,32 @@
         <v>401</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>557</v>
+        <v>53</v>
       </c>
       <c r="C203" s="4">
-        <v>8727.0</v>
+        <v>2372.0</v>
       </c>
       <c r="D203" s="5" t="str">
         <f t="array" ref="D203">XLOOKUP(C203,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Phan Đình Giót (sau ngã 3 Phan Thúc Duyện</v>
+        <v>Phổ Quang</v>
       </c>
       <c r="E203" s="5" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="5" t="s">
-        <v>244</v>
+      <c r="A204" s="4" t="s">
+        <v>401</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>368</v>
+        <v>557</v>
       </c>
       <c r="C204" s="4">
-        <v>11863.0</v>
+        <v>8727.0</v>
       </c>
       <c r="D204" s="5" t="str">
         <f t="array" ref="D204">XLOOKUP(C204,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Cộng Hòa</v>
+        <v>Phan Đình Giót (sau ngã 3 Phan Thúc Duyện</v>
       </c>
       <c r="E204" s="5" t="s">
         <v>709</v>
@@ -35536,10 +35538,10 @@
     </row>
     <row r="205">
       <c r="A205" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B205" s="5" t="s">
         <v>368</v>
-      </c>
-      <c r="B205" s="5" t="s">
-        <v>244</v>
       </c>
       <c r="C205" s="4">
         <v>11863.0</v>
@@ -35549,33 +35551,33 @@
         <v>Cộng Hòa</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B206" s="4" t="s">
-        <v>249</v>
+      <c r="A206" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>244</v>
       </c>
       <c r="C206" s="4">
-        <v>2181.0</v>
+        <v>11863.0</v>
       </c>
       <c r="D206" s="5" t="str">
         <f t="array" ref="D206">XLOOKUP(C206,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Âu Cơ</v>
-      </c>
-      <c r="E206" s="4" t="s">
+        <v>Cộng Hòa</v>
+      </c>
+      <c r="E206" s="5" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B207" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="B207" s="4" t="s">
-        <v>181</v>
       </c>
       <c r="C207" s="4">
         <v>2181.0</v>
@@ -35585,7 +35587,7 @@
         <v>Âu Cơ</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="208">
@@ -35593,14 +35595,14 @@
         <v>249</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>701</v>
+        <v>181</v>
       </c>
       <c r="C208" s="4">
-        <v>3632.0</v>
+        <v>2181.0</v>
       </c>
       <c r="D208" s="5" t="str">
         <f t="array" ref="D208">XLOOKUP(C208,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Trường Chinh (Ngã 3 Âu Cơ - Ga Bảy Hiền)</v>
+        <v>Âu Cơ</v>
       </c>
       <c r="E208" s="4" t="s">
         <v>711</v>
@@ -35608,10 +35610,10 @@
     </row>
     <row r="209">
       <c r="A209" s="4" t="s">
-        <v>701</v>
+        <v>249</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>249</v>
+        <v>702</v>
       </c>
       <c r="C209" s="4">
         <v>3632.0</v>
@@ -35621,33 +35623,33 @@
         <v>Trường Chinh (Ngã 3 Âu Cơ - Ga Bảy Hiền)</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B210" s="5" t="s">
-        <v>361</v>
+      <c r="A210" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="C210" s="4">
-        <v>2372.0</v>
+        <v>3632.0</v>
       </c>
       <c r="D210" s="5" t="str">
         <f t="array" ref="D210">XLOOKUP(C210,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Phổ Quang</v>
-      </c>
-      <c r="E210" s="5" t="s">
+        <v>Trường Chinh (Ngã 3 Âu Cơ - Ga Bảy Hiền)</v>
+      </c>
+      <c r="E210" s="4" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B211" s="5" t="s">
         <v>361</v>
-      </c>
-      <c r="B211" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="C211" s="4">
         <v>2372.0</v>
@@ -35657,51 +35659,51 @@
         <v>Phổ Quang</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="5" t="s">
-        <v>557</v>
+        <v>361</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>241</v>
+        <v>53</v>
       </c>
       <c r="C212" s="4">
-        <v>12163.0</v>
+        <v>2372.0</v>
       </c>
       <c r="D212" s="5" t="str">
         <f t="array" ref="D212">XLOOKUP(C212,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Phan Đình Giót (trước ngã 3 Phan Thúc Duyện</v>
+        <v>Phổ Quang</v>
       </c>
       <c r="E212" s="5" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B213" s="4" t="s">
-        <v>249</v>
+      <c r="A213" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="C213" s="4">
-        <v>3736.0</v>
+        <v>12163.0</v>
       </c>
       <c r="D213" s="5" t="str">
         <f t="array" ref="D213">XLOOKUP(C213,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Trường Chinh (Ngã 3 Cộng Hòa - Ngã 3 Âu Cơ)</v>
-      </c>
-      <c r="E213" s="4" t="s">
+        <v>Phan Đình Giót (trước ngã 3 Phan Thúc Duyện</v>
+      </c>
+      <c r="E213" s="5" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B214" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="C214" s="4">
         <v>3736.0</v>
@@ -35711,40 +35713,40 @@
         <v>Trường Chinh (Ngã 3 Cộng Hòa - Ngã 3 Âu Cơ)</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="B215" s="5" t="s">
-        <v>534</v>
+      <c r="A215" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="C215" s="4">
-        <v>7200.0</v>
+        <v>3736.0</v>
       </c>
       <c r="D215" s="5" t="str">
         <f t="array" ref="D215">XLOOKUP(C215,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Trần Quốc Hoàn</v>
-      </c>
-      <c r="E215" s="5" t="s">
+        <v>Trường Chinh (Ngã 3 Cộng Hòa - Ngã 3 Âu Cơ)</v>
+      </c>
+      <c r="E215" s="4" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="5" t="s">
-        <v>241</v>
+        <v>445</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>25</v>
+        <v>534</v>
       </c>
       <c r="C216" s="4">
-        <v>9545.0</v>
+        <v>7200.0</v>
       </c>
       <c r="D216" s="5" t="str">
         <f t="array" ref="D216">XLOOKUP(C216,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Trường Sơn</v>
+        <v>Trần Quốc Hoàn</v>
       </c>
       <c r="E216" s="5" t="s">
         <v>716</v>
@@ -35752,28 +35754,28 @@
     </row>
     <row r="217">
       <c r="A217" s="5" t="s">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>717</v>
+        <v>25</v>
       </c>
       <c r="C217" s="4">
-        <v>2372.0</v>
+        <v>9545.0</v>
       </c>
       <c r="D217" s="5" t="str">
         <f t="array" ref="D217">XLOOKUP(C217,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Phổ Quang</v>
+        <v>Trường Sơn</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="5" t="s">
-        <v>717</v>
+        <v>102</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>102</v>
+        <v>718</v>
       </c>
       <c r="C218" s="4">
         <v>2372.0</v>
@@ -35783,15 +35785,15 @@
         <v>Phổ Quang</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="5" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>361</v>
+        <v>102</v>
       </c>
       <c r="C219" s="4">
         <v>2372.0</v>
@@ -35806,10 +35808,10 @@
     </row>
     <row r="220">
       <c r="A220" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="B220" s="5" t="s">
         <v>361</v>
-      </c>
-      <c r="B220" s="5" t="s">
-        <v>717</v>
       </c>
       <c r="C220" s="4">
         <v>2372.0</v>
@@ -35819,51 +35821,51 @@
         <v>Phổ Quang</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="5" t="s">
-        <v>230</v>
+        <v>361</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>445</v>
+        <v>718</v>
       </c>
       <c r="C221" s="4">
-        <v>7200.0</v>
+        <v>2372.0</v>
       </c>
       <c r="D221" s="5" t="str">
         <f t="array" ref="D221">XLOOKUP(C221,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Trần Quốc Hoàn</v>
+        <v>Phổ Quang</v>
       </c>
       <c r="E221" s="5" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="4" t="s">
-        <v>200</v>
+      <c r="A222" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>244</v>
+        <v>445</v>
       </c>
       <c r="C222" s="4">
-        <v>11863.0</v>
+        <v>7200.0</v>
       </c>
       <c r="D222" s="5" t="str">
         <f t="array" ref="D222">XLOOKUP(C222,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Cộng Hòa</v>
-      </c>
-      <c r="E222" s="4" t="s">
+        <v>Trần Quốc Hoàn</v>
+      </c>
+      <c r="E222" s="5" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="5" t="s">
+      <c r="A223" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B223" s="5" t="s">
         <v>244</v>
-      </c>
-      <c r="B223" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="C223" s="4">
         <v>11863.0</v>
@@ -35873,22 +35875,22 @@
         <v>Cộng Hòa</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="4" t="s">
-        <v>173</v>
+      <c r="A224" s="5" t="s">
+        <v>244</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>200</v>
       </c>
       <c r="C224" s="4">
-        <v>3736.0</v>
+        <v>11863.0</v>
       </c>
       <c r="D224" s="5" t="str">
         <f t="array" ref="D224">XLOOKUP(C224,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Trường Chinh (Ngã 3 Cộng Hòa - Ngã 3 Âu Cơ)</v>
+        <v>Cộng Hòa</v>
       </c>
       <c r="E224" s="4" t="s">
         <v>722</v>
@@ -35896,10 +35898,10 @@
     </row>
     <row r="225">
       <c r="A225" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B225" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="B225" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="C225" s="4">
         <v>3736.0</v>
@@ -35909,33 +35911,33 @@
         <v>Trường Chinh (Ngã 3 Cộng Hòa - Ngã 3 Âu Cơ)</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B226" s="5" t="s">
-        <v>458</v>
+      <c r="A226" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="C226" s="4">
-        <v>2372.0</v>
+        <v>3736.0</v>
       </c>
       <c r="D226" s="5" t="str">
         <f t="array" ref="D226">XLOOKUP(C226,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Phổ Quang</v>
-      </c>
-      <c r="E226" s="5" t="s">
+        <v>Trường Chinh (Ngã 3 Cộng Hòa - Ngã 3 Âu Cơ)</v>
+      </c>
+      <c r="E226" s="4" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B227" s="5" t="s">
         <v>458</v>
-      </c>
-      <c r="B227" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="C227" s="4">
         <v>2372.0</v>
@@ -35945,22 +35947,22 @@
         <v>Phổ Quang</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="5" t="s">
-        <v>50</v>
+        <v>458</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>458</v>
+        <v>102</v>
       </c>
       <c r="C228" s="4">
-        <v>6954.0</v>
+        <v>2372.0</v>
       </c>
       <c r="D228" s="5" t="str">
         <f t="array" ref="D228">XLOOKUP(C228,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Hoàng Minh Gíam</v>
+        <v>Phổ Quang</v>
       </c>
       <c r="E228" s="5" t="s">
         <v>724</v>
@@ -35968,10 +35970,10 @@
     </row>
     <row r="229">
       <c r="A229" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B229" s="5" t="s">
         <v>458</v>
-      </c>
-      <c r="B229" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="C229" s="4">
         <v>6954.0</v>
@@ -35981,15 +35983,15 @@
         <v>Hoàng Minh Gíam</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="B230" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="B230" s="5" t="s">
-        <v>548</v>
       </c>
       <c r="C230" s="4">
         <v>6954.0</v>
@@ -36004,10 +36006,10 @@
     </row>
     <row r="231">
       <c r="A231" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B231" s="5" t="s">
         <v>548</v>
-      </c>
-      <c r="B231" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="C231" s="4">
         <v>6954.0</v>
@@ -36017,22 +36019,22 @@
         <v>Hoàng Minh Gíam</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="5" t="s">
-        <v>389</v>
+        <v>548</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="C232" s="4">
-        <v>9545.0</v>
+        <v>6954.0</v>
       </c>
       <c r="D232" s="5" t="str">
         <f t="array" ref="D232">XLOOKUP(C232,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Trường Sơn</v>
+        <v>Hoàng Minh Gíam</v>
       </c>
       <c r="E232" s="5" t="s">
         <v>726</v>
@@ -36040,10 +36042,10 @@
     </row>
     <row r="233">
       <c r="A233" s="5" t="s">
-        <v>25</v>
+        <v>389</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>389</v>
+        <v>230</v>
       </c>
       <c r="C233" s="4">
         <v>9545.0</v>
@@ -36058,10 +36060,10 @@
     </row>
     <row r="234">
       <c r="A234" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B234" s="5" t="s">
         <v>389</v>
-      </c>
-      <c r="B234" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="C234" s="4">
         <v>9545.0</v>
@@ -36071,7 +36073,7 @@
         <v>Trường Sơn</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="235">
@@ -36079,14 +36081,14 @@
         <v>389</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>379</v>
+        <v>25</v>
       </c>
       <c r="C235" s="4">
-        <v>6545.0</v>
+        <v>9545.0</v>
       </c>
       <c r="D235" s="5" t="str">
         <f t="array" ref="D235">XLOOKUP(C235,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Hồng Hà</v>
+        <v>Trường Sơn</v>
       </c>
       <c r="E235" s="5" t="s">
         <v>728</v>
@@ -36094,10 +36096,10 @@
     </row>
     <row r="236">
       <c r="A236" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B236" s="5" t="s">
         <v>379</v>
-      </c>
-      <c r="B236" s="5" t="s">
-        <v>269</v>
       </c>
       <c r="C236" s="4">
         <v>6545.0</v>
@@ -36112,10 +36114,10 @@
     </row>
     <row r="237">
       <c r="A237" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B237" s="5" t="s">
         <v>269</v>
-      </c>
-      <c r="B237" s="5" t="s">
-        <v>548</v>
       </c>
       <c r="C237" s="4">
         <v>6545.0</v>
@@ -36130,35 +36132,35 @@
     </row>
     <row r="238">
       <c r="A238" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B238" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="B238" s="5" t="s">
-        <v>156</v>
-      </c>
       <c r="C238" s="4">
-        <v>6409.0</v>
+        <v>6545.0</v>
       </c>
       <c r="D238" s="5" t="str">
         <f t="array" ref="D238">XLOOKUP(C238,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Bạch Đằng (sân bay)</v>
+        <v>Hồng Hà</v>
       </c>
       <c r="E238" s="5" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B239" s="4" t="s">
-        <v>200</v>
+      <c r="A239" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="C239" s="4">
-        <v>12561.0</v>
+        <v>6409.0</v>
       </c>
       <c r="D239" s="5" t="str">
         <f t="array" ref="D239">XLOOKUP(C239,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Trường Chinh (Phạm Văn Bạch - Ngã 3 Cộng Hòa)</v>
+        <v>Bạch Đằng (sân bay)</v>
       </c>
       <c r="E239" s="5" t="s">
         <v>732</v>
@@ -36166,10 +36168,10 @@
     </row>
     <row r="240">
       <c r="A240" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B240" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="B240" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="C240" s="4">
         <v>12561.0</v>
@@ -36179,33 +36181,33 @@
         <v>Trường Chinh (Phạm Văn Bạch - Ngã 3 Cộng Hòa)</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="B241" s="6" t="s">
-        <v>561</v>
+      <c r="A241" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="C241" s="4">
-        <v>4148.0</v>
+        <v>12561.0</v>
       </c>
       <c r="D241" s="5" t="str">
         <f t="array" ref="D241">XLOOKUP(C241,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Tân Sơn (Chẻ đôi - Mũi tàu Phạm Văn Bạch)</v>
+        <v>Trường Chinh (Phạm Văn Bạch - Ngã 3 Cộng Hòa)</v>
       </c>
       <c r="E241" s="5" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="6" t="s">
+      <c r="A242" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B242" s="6" t="s">
         <v>561</v>
-      </c>
-      <c r="B242" s="5" t="s">
-        <v>386</v>
       </c>
       <c r="C242" s="4">
         <v>4148.0</v>
@@ -36215,22 +36217,22 @@
         <v>Tân Sơn (Chẻ đôi - Mũi tàu Phạm Văn Bạch)</v>
       </c>
       <c r="E242" s="5" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="5" t="s">
-        <v>211</v>
+      <c r="A243" s="6" t="s">
+        <v>561</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C243" s="4">
-        <v>6409.0</v>
+        <v>4148.0</v>
       </c>
       <c r="D243" s="5" t="str">
         <f t="array" ref="D243">XLOOKUP(C243,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Bạch Đằng (sân bay)</v>
+        <v>Tân Sơn (Chẻ đôi - Mũi tàu Phạm Văn Bạch)</v>
       </c>
       <c r="E243" s="5" t="s">
         <v>734</v>
@@ -36238,10 +36240,10 @@
     </row>
     <row r="244">
       <c r="A244" s="5" t="s">
-        <v>156</v>
+        <v>211</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>211</v>
+        <v>389</v>
       </c>
       <c r="C244" s="4">
         <v>6409.0</v>
@@ -36256,17 +36258,17 @@
     </row>
     <row r="245">
       <c r="A245" s="5" t="s">
-        <v>386</v>
+        <v>156</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>391</v>
+        <v>211</v>
       </c>
       <c r="C245" s="4">
-        <v>4148.0</v>
+        <v>6409.0</v>
       </c>
       <c r="D245" s="5" t="str">
         <f t="array" ref="D245">XLOOKUP(C245,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Tân Sơn (Chẻ đôi - Mũi tàu Phạm Văn Bạch)</v>
+        <v>Bạch Đằng (sân bay)</v>
       </c>
       <c r="E245" s="5" t="s">
         <v>736</v>
@@ -36274,10 +36276,10 @@
     </row>
     <row r="246">
       <c r="A246" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B246" s="5" t="s">
         <v>391</v>
-      </c>
-      <c r="B246" s="5" t="s">
-        <v>386</v>
       </c>
       <c r="C246" s="4">
         <v>4148.0</v>
@@ -36287,7 +36289,7 @@
         <v>Tân Sơn (Chẻ đôi - Mũi tàu Phạm Văn Bạch)</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="247">
@@ -36295,14 +36297,14 @@
         <v>391</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>508</v>
+        <v>386</v>
       </c>
       <c r="C247" s="4">
-        <v>1680.0</v>
+        <v>4148.0</v>
       </c>
       <c r="D247" s="5" t="str">
         <f t="array" ref="D247">XLOOKUP(C247,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Tân Sơn (Ngã 3 Phạm Văn Bạch - Chẻ đôi)</v>
+        <v>Tân Sơn (Chẻ đôi - Mũi tàu Phạm Văn Bạch)</v>
       </c>
       <c r="E247" s="5" t="s">
         <v>737</v>
@@ -36310,10 +36312,10 @@
     </row>
     <row r="248">
       <c r="A248" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B248" s="5" t="s">
         <v>508</v>
-      </c>
-      <c r="B248" s="5" t="s">
-        <v>391</v>
       </c>
       <c r="C248" s="4">
         <v>1680.0</v>
@@ -36323,7 +36325,7 @@
         <v>Tân Sơn (Ngã 3 Phạm Văn Bạch - Chẻ đôi)</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="249">
@@ -36331,14 +36333,14 @@
         <v>508</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>118</v>
+        <v>391</v>
       </c>
       <c r="C249" s="4">
-        <v>4669.0</v>
+        <v>1680.0</v>
       </c>
       <c r="D249" s="5" t="str">
         <f t="array" ref="D249">XLOOKUP(C249,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Tân Sơn (Quang Trung - Ngã 3 chữ T Phạm Văn Bạch)</v>
+        <v>Tân Sơn (Ngã 3 Phạm Văn Bạch - Chẻ đôi)</v>
       </c>
       <c r="E249" s="5" t="s">
         <v>738</v>
@@ -36346,10 +36348,10 @@
     </row>
     <row r="250">
       <c r="A250" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B250" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="B250" s="5" t="s">
-        <v>508</v>
       </c>
       <c r="C250" s="4">
         <v>4669.0</v>
@@ -36359,7 +36361,7 @@
         <v>Tân Sơn (Quang Trung - Ngã 3 chữ T Phạm Văn Bạch)</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="251">
@@ -36367,25 +36369,25 @@
         <v>118</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>739</v>
+        <v>508</v>
       </c>
       <c r="C251" s="4">
-        <v>4227.0</v>
+        <v>4669.0</v>
       </c>
       <c r="D251" s="5" t="str">
         <f t="array" ref="D251">XLOOKUP(C251,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Quang Trung</v>
+        <v>Tân Sơn (Quang Trung - Ngã 3 chữ T Phạm Văn Bạch)</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="5" t="s">
-        <v>739</v>
+        <v>118</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>118</v>
+        <v>740</v>
       </c>
       <c r="C252" s="4">
         <v>4227.0</v>
@@ -36395,33 +36397,33 @@
         <v>Quang Trung</v>
       </c>
       <c r="E252" s="5" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="5" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="6" t="s">
-        <v>561</v>
-      </c>
       <c r="B253" s="5" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="C253" s="4">
-        <v>2345.0</v>
+        <v>4227.0</v>
       </c>
       <c r="D253" s="5" t="str">
         <f t="array" ref="D253">XLOOKUP(C253,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Phạm Văn Bạch </v>
-      </c>
-      <c r="E253" s="4" t="s">
+        <v>Quang Trung</v>
+      </c>
+      <c r="E253" s="5" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="5" t="s">
+      <c r="A254" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="B254" s="5" t="s">
         <v>198</v>
-      </c>
-      <c r="B254" s="6" t="s">
-        <v>561</v>
       </c>
       <c r="C254" s="4">
         <v>2345.0</v>
@@ -36431,33 +36433,33 @@
         <v>Phạm Văn Bạch </v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="5" t="s">
-        <v>739</v>
-      </c>
-      <c r="B255" s="5" t="s">
-        <v>374</v>
+        <v>198</v>
+      </c>
+      <c r="B255" s="6" t="s">
+        <v>561</v>
       </c>
       <c r="C255" s="4">
-        <v>4227.0</v>
+        <v>2345.0</v>
       </c>
       <c r="D255" s="5" t="str">
         <f t="array" ref="D255">XLOOKUP(C255,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Quang Trung</v>
-      </c>
-      <c r="E255" s="5" t="s">
+        <v>Phạm Văn Bạch </v>
+      </c>
+      <c r="E255" s="4" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="B256" s="5" t="s">
         <v>374</v>
-      </c>
-      <c r="B256" s="5" t="s">
-        <v>739</v>
       </c>
       <c r="C256" s="4">
         <v>4227.0</v>
@@ -36467,7 +36469,7 @@
         <v>Quang Trung</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="257">
@@ -36475,7 +36477,7 @@
         <v>374</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>396</v>
+        <v>740</v>
       </c>
       <c r="C257" s="4">
         <v>4227.0</v>
@@ -36490,10 +36492,10 @@
     </row>
     <row r="258">
       <c r="A258" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B258" s="5" t="s">
         <v>396</v>
-      </c>
-      <c r="B258" s="5" t="s">
-        <v>374</v>
       </c>
       <c r="C258" s="4">
         <v>4227.0</v>
@@ -36503,7 +36505,7 @@
         <v>Quang Trung</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="259">
@@ -36511,7 +36513,7 @@
         <v>396</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>257</v>
+        <v>374</v>
       </c>
       <c r="C259" s="4">
         <v>4227.0</v>
@@ -36526,10 +36528,10 @@
     </row>
     <row r="260">
       <c r="A260" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="B260" s="5" t="s">
         <v>257</v>
-      </c>
-      <c r="B260" s="5" t="s">
-        <v>396</v>
       </c>
       <c r="C260" s="4">
         <v>4227.0</v>
@@ -36539,7 +36541,7 @@
         <v>Quang Trung</v>
       </c>
       <c r="E260" s="5" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="261">
@@ -36547,14 +36549,14 @@
         <v>257</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>478</v>
+        <v>396</v>
       </c>
       <c r="C261" s="4">
-        <v>4909.0</v>
+        <v>4227.0</v>
       </c>
       <c r="D261" s="5" t="str">
         <f t="array" ref="D261">XLOOKUP(C261,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Nguyễn Văn Nghi</v>
+        <v>Quang Trung</v>
       </c>
       <c r="E261" s="5" t="s">
         <v>745</v>
@@ -36562,10 +36564,10 @@
     </row>
     <row r="262">
       <c r="A262" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B262" s="5" t="s">
         <v>478</v>
-      </c>
-      <c r="B262" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="C262" s="4">
         <v>4909.0</v>
@@ -36575,7 +36577,7 @@
         <v>Nguyễn Văn Nghi</v>
       </c>
       <c r="E262" s="5" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="263">
@@ -36583,7 +36585,7 @@
         <v>478</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>89</v>
+        <v>257</v>
       </c>
       <c r="C263" s="4">
         <v>4909.0</v>
@@ -36598,10 +36600,10 @@
     </row>
     <row r="264">
       <c r="A264" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="B264" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="B264" s="5" t="s">
-        <v>478</v>
       </c>
       <c r="C264" s="4">
         <v>4909.0</v>
@@ -36611,38 +36613,39 @@
         <v>Nguyễn Văn Nghi</v>
       </c>
       <c r="E264" s="5" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="5" t="s">
-        <v>272</v>
+        <v>89</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>146</v>
+        <v>478</v>
       </c>
       <c r="C265" s="4">
-        <v>5563.0</v>
-      </c>
-      <c r="D265" s="5" t="s">
+        <v>4909.0</v>
+      </c>
+      <c r="D265" s="5" t="str">
+        <f t="array" ref="D265">XLOOKUP(C265,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
+        <v>Nguyễn Văn Nghi</v>
+      </c>
+      <c r="E265" s="5" t="s">
         <v>747</v>
-      </c>
-      <c r="E265" s="5" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B266" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="B266" s="5" t="s">
-        <v>366</v>
       </c>
       <c r="C266" s="4">
         <v>5563.0</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E266" s="5" t="s">
         <v>749</v>
@@ -36650,16 +36653,16 @@
     </row>
     <row r="267">
       <c r="A267" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B267" s="5" t="s">
         <v>366</v>
-      </c>
-      <c r="B267" s="5" t="s">
-        <v>548</v>
       </c>
       <c r="C267" s="4">
         <v>5563.0</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E267" s="5" t="s">
         <v>750</v>
@@ -36667,33 +36670,33 @@
     </row>
     <row r="268">
       <c r="A268" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B268" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="B268" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="C268" s="4">
-        <v>16363.0</v>
+        <v>5563.0</v>
       </c>
       <c r="D268" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="E268" s="5" t="s">
         <v>751</v>
-      </c>
-      <c r="E268" s="5" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="5" t="s">
-        <v>342</v>
+        <v>548</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>548</v>
+        <v>83</v>
       </c>
       <c r="C269" s="4">
         <v>16363.0</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E269" s="5" t="s">
         <v>753</v>
@@ -36701,45 +36704,44 @@
     </row>
     <row r="270">
       <c r="A270" s="5" t="s">
-        <v>83</v>
+        <v>342</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>342</v>
+        <v>548</v>
       </c>
       <c r="C270" s="4">
         <v>16363.0</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="E270" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="E270" s="5" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B271" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="B271" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="C271" s="4">
-        <v>4909.0</v>
-      </c>
-      <c r="D271" s="5" t="str">
-        <f t="array" ref="D271">XLOOKUP(C271,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Nguyễn Văn Nghi</v>
-      </c>
-      <c r="E271" s="5" t="s">
+        <v>16363.0</v>
+      </c>
+      <c r="D271" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="E271" s="7" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B272" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="B272" s="5" t="s">
-        <v>342</v>
       </c>
       <c r="C272" s="4">
         <v>4909.0</v>
@@ -36749,22 +36751,22 @@
         <v>Nguyễn Văn Nghi</v>
       </c>
       <c r="E272" s="5" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B273" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="B273" s="5" t="s">
-        <v>152</v>
-      </c>
       <c r="C273" s="4">
-        <v>3490.0</v>
+        <v>4909.0</v>
       </c>
       <c r="D273" s="5" t="str">
         <f t="array" ref="D273">XLOOKUP(C273,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Lê Quang Định</v>
+        <v>Nguyễn Văn Nghi</v>
       </c>
       <c r="E273" s="5" t="s">
         <v>756</v>
@@ -36772,10 +36774,10 @@
     </row>
     <row r="274">
       <c r="A274" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B274" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="B274" s="5" t="s">
-        <v>342</v>
       </c>
       <c r="C274" s="4">
         <v>3490.0</v>
@@ -36785,21 +36787,22 @@
         <v>Lê Quang Định</v>
       </c>
       <c r="E274" s="5" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="5" t="s">
-        <v>278</v>
+        <v>152</v>
       </c>
       <c r="B275" s="5" t="s">
         <v>342</v>
       </c>
       <c r="C275" s="4">
-        <v>16363.0</v>
-      </c>
-      <c r="D275" s="5" t="s">
-        <v>751</v>
+        <v>3490.0</v>
+      </c>
+      <c r="D275" s="5" t="str">
+        <f t="array" ref="D275">XLOOKUP(C275,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
+        <v>Lê Quang Định</v>
       </c>
       <c r="E275" s="5" t="s">
         <v>757</v>
@@ -36807,17 +36810,16 @@
     </row>
     <row r="276">
       <c r="A276" s="5" t="s">
-        <v>152</v>
+        <v>278</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>372</v>
+        <v>342</v>
       </c>
       <c r="C276" s="4">
-        <v>3490.0</v>
-      </c>
-      <c r="D276" s="5" t="str">
-        <f t="array" ref="D276">XLOOKUP(C276,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Lê Quang Định</v>
+        <v>16363.0</v>
+      </c>
+      <c r="D276" s="5" t="s">
+        <v>752</v>
       </c>
       <c r="E276" s="5" t="s">
         <v>758</v>
@@ -36825,10 +36827,10 @@
     </row>
     <row r="277">
       <c r="A277" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B277" s="5" t="s">
         <v>372</v>
-      </c>
-      <c r="B277" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="C277" s="4">
         <v>3490.0</v>
@@ -36838,7 +36840,7 @@
         <v>Lê Quang Định</v>
       </c>
       <c r="E277" s="5" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="278">
@@ -36846,7 +36848,7 @@
         <v>372</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="C278" s="4">
         <v>3490.0</v>
@@ -36861,10 +36863,10 @@
     </row>
     <row r="279">
       <c r="A279" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B279" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="B279" s="5" t="s">
-        <v>372</v>
       </c>
       <c r="C279" s="4">
         <v>3490.0</v>
@@ -36874,7 +36876,7 @@
         <v>Lê Quang Định</v>
       </c>
       <c r="E279" s="5" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="280">
@@ -36882,7 +36884,7 @@
         <v>137</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>503</v>
+        <v>372</v>
       </c>
       <c r="C280" s="4">
         <v>3490.0</v>
@@ -36897,10 +36899,10 @@
     </row>
     <row r="281">
       <c r="A281" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B281" s="5" t="s">
         <v>503</v>
-      </c>
-      <c r="B281" s="5" t="s">
-        <v>137</v>
       </c>
       <c r="C281" s="4">
         <v>3490.0</v>
@@ -36910,21 +36912,22 @@
         <v>Lê Quang Định</v>
       </c>
       <c r="E281" s="5" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="5" t="s">
-        <v>352</v>
+        <v>503</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>278</v>
+        <v>137</v>
       </c>
       <c r="C282" s="4">
-        <v>16363.0</v>
-      </c>
-      <c r="D282" s="5" t="s">
-        <v>751</v>
+        <v>3490.0</v>
+      </c>
+      <c r="D282" s="5" t="str">
+        <f t="array" ref="D282">XLOOKUP(C282,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
+        <v>Lê Quang Định</v>
       </c>
       <c r="E282" s="5" t="s">
         <v>761</v>
@@ -36932,16 +36935,16 @@
     </row>
     <row r="283">
       <c r="A283" s="5" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>352</v>
+        <v>278</v>
       </c>
       <c r="C283" s="4">
         <v>16363.0</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E283" s="5" t="s">
         <v>762</v>
@@ -36949,50 +36952,50 @@
     </row>
     <row r="284">
       <c r="A284" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B284" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="B284" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="C284" s="4">
-        <v>5181.0</v>
+        <v>16363.0</v>
       </c>
       <c r="D284" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="E284" s="5" t="s">
         <v>763</v>
-      </c>
-      <c r="E284" s="5" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B285" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="B285" s="5" t="s">
-        <v>352</v>
       </c>
       <c r="C285" s="4">
         <v>5181.0</v>
       </c>
       <c r="D285" s="5" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E285" s="5" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B286" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="B286" s="5" t="s">
-        <v>263</v>
-      </c>
       <c r="C286" s="4">
-        <v>16363.0</v>
+        <v>5181.0</v>
       </c>
       <c r="D286" s="5" t="s">
-        <v>751</v>
+        <v>764</v>
       </c>
       <c r="E286" s="5" t="s">
         <v>765</v>
@@ -37000,33 +37003,33 @@
     </row>
     <row r="287">
       <c r="A287" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B287" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="B287" s="5" t="s">
-        <v>352</v>
       </c>
       <c r="C287" s="4">
         <v>16363.0</v>
       </c>
       <c r="D287" s="5" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E287" s="5" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="5" t="s">
-        <v>71</v>
+        <v>263</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>409</v>
+        <v>352</v>
       </c>
       <c r="C288" s="4">
-        <v>5181.0</v>
+        <v>16363.0</v>
       </c>
       <c r="D288" s="5" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="E288" s="5" t="s">
         <v>766</v>
@@ -37034,53 +37037,53 @@
     </row>
     <row r="289">
       <c r="A289" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B289" s="5" t="s">
         <v>409</v>
-      </c>
-      <c r="B289" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="C289" s="4">
         <v>5181.0</v>
       </c>
       <c r="D289" s="5" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E289" s="5" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="B290" s="6" t="s">
-        <v>567</v>
+      <c r="B290" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="C290" s="4">
         <v>5181.0</v>
       </c>
       <c r="D290" s="5" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E290" s="5" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="6" t="s">
+      <c r="A291" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B291" s="6" t="s">
         <v>567</v>
-      </c>
-      <c r="B291" s="5" t="s">
-        <v>409</v>
       </c>
       <c r="C291" s="4">
         <v>5181.0</v>
       </c>
       <c r="D291" s="5" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E291" s="5" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="292">
@@ -37088,43 +37091,42 @@
         <v>567</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>254</v>
+        <v>409</v>
       </c>
       <c r="C292" s="4">
-        <v>8454.0</v>
-      </c>
-      <c r="D292" s="5" t="str">
-        <f t="array" ref="D292">XLOOKUP(C292,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Nguyễn Xí (Sau DBLinh)</v>
-      </c>
-      <c r="E292" s="6" t="s">
+        <v>5181.0</v>
+      </c>
+      <c r="D292" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="E292" s="5" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="5" t="s">
-        <v>301</v>
+      <c r="A293" s="6" t="s">
+        <v>567</v>
       </c>
       <c r="B293" s="5" t="s">
         <v>254</v>
       </c>
       <c r="C293" s="4">
-        <v>8072.0</v>
+        <v>8454.0</v>
       </c>
       <c r="D293" s="5" t="str">
         <f t="array" ref="D293">XLOOKUP(C293,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Xô Viết Nghệ Tĩnh (sau hàng xanh)</v>
-      </c>
-      <c r="E293" s="5" t="s">
+        <v>Nguyễn Xí (Sau DBLinh)</v>
+      </c>
+      <c r="E293" s="6" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B294" s="5" t="s">
         <v>254</v>
-      </c>
-      <c r="B294" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="C294" s="4">
         <v>8072.0</v>
@@ -37142,14 +37144,14 @@
         <v>254</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C295" s="4">
-        <v>4800.0</v>
+        <v>8072.0</v>
       </c>
       <c r="D295" s="5" t="str">
         <f t="array" ref="D295">XLOOKUP(C295,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Ung Văn Khiêm</v>
+        <v>Xô Viết Nghệ Tĩnh (sau hàng xanh)</v>
       </c>
       <c r="E295" s="5" t="s">
         <v>771</v>
@@ -37157,17 +37159,17 @@
     </row>
     <row r="296">
       <c r="A296" s="5" t="s">
-        <v>110</v>
+        <v>254</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>263</v>
+        <v>124</v>
       </c>
       <c r="C296" s="4">
-        <v>8072.0</v>
+        <v>4800.0</v>
       </c>
       <c r="D296" s="5" t="str">
         <f t="array" ref="D296">XLOOKUP(C296,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Xô Viết Nghệ Tĩnh (sau hàng xanh)</v>
+        <v>Ung Văn Khiêm</v>
       </c>
       <c r="E296" s="5" t="s">
         <v>772</v>
@@ -37175,10 +37177,10 @@
     </row>
     <row r="297">
       <c r="A297" s="5" t="s">
-        <v>252</v>
+        <v>110</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="C297" s="4">
         <v>8072.0</v>
@@ -37196,14 +37198,14 @@
         <v>252</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>555</v>
+        <v>301</v>
       </c>
       <c r="C298" s="4">
-        <v>5708.0</v>
+        <v>8072.0</v>
       </c>
       <c r="D298" s="5" t="str">
         <f t="array" ref="D298">XLOOKUP(C298,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Bạch Đằng (Hàng Xanh)</v>
+        <v>Xô Viết Nghệ Tĩnh (sau hàng xanh)</v>
       </c>
       <c r="E298" s="5" t="s">
         <v>774</v>
@@ -37211,10 +37213,10 @@
     </row>
     <row r="299">
       <c r="A299" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B299" s="5" t="s">
         <v>555</v>
-      </c>
-      <c r="B299" s="5" t="s">
-        <v>252</v>
       </c>
       <c r="C299" s="4">
         <v>5708.0</v>
@@ -37224,22 +37226,22 @@
         <v>Bạch Đằng (Hàng Xanh)</v>
       </c>
       <c r="E299" s="5" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="B300" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B300" s="5" t="s">
-        <v>266</v>
-      </c>
       <c r="C300" s="4">
-        <v>8072.0</v>
+        <v>5708.0</v>
       </c>
       <c r="D300" s="5" t="str">
         <f t="array" ref="D300">XLOOKUP(C300,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Xô Viết Nghệ Tĩnh (sau hàng xanh)</v>
+        <v>Bạch Đằng (Hàng Xanh)</v>
       </c>
       <c r="E300" s="5" t="s">
         <v>775</v>
@@ -37247,10 +37249,10 @@
     </row>
     <row r="301">
       <c r="A301" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B301" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="B301" s="5" t="s">
-        <v>252</v>
       </c>
       <c r="C301" s="4">
         <v>8072.0</v>
@@ -37260,22 +37262,22 @@
         <v>Xô Viết Nghệ Tĩnh (sau hàng xanh)</v>
       </c>
       <c r="E301" s="5" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="5" t="s">
-        <v>555</v>
+        <v>266</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>516</v>
+        <v>252</v>
       </c>
       <c r="C302" s="4">
-        <v>5708.0</v>
+        <v>8072.0</v>
       </c>
       <c r="D302" s="5" t="str">
         <f t="array" ref="D302">XLOOKUP(C302,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Bạch Đằng (Hàng Xanh)</v>
+        <v>Xô Viết Nghệ Tĩnh (sau hàng xanh)</v>
       </c>
       <c r="E302" s="5" t="s">
         <v>776</v>
@@ -37283,10 +37285,10 @@
     </row>
     <row r="303">
       <c r="A303" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="B303" s="5" t="s">
         <v>516</v>
-      </c>
-      <c r="B303" s="5" t="s">
-        <v>555</v>
       </c>
       <c r="C303" s="4">
         <v>5708.0</v>
@@ -37296,7 +37298,7 @@
         <v>Bạch Đằng (Hàng Xanh)</v>
       </c>
       <c r="E303" s="5" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="304">
@@ -37304,7 +37306,7 @@
         <v>516</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>140</v>
+        <v>555</v>
       </c>
       <c r="C304" s="4">
         <v>5708.0</v>
@@ -37319,10 +37321,10 @@
     </row>
     <row r="305">
       <c r="A305" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="B305" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="B305" s="5" t="s">
-        <v>516</v>
       </c>
       <c r="C305" s="4">
         <v>5708.0</v>
@@ -37332,7 +37334,7 @@
         <v>Bạch Đằng (Hàng Xanh)</v>
       </c>
       <c r="E305" s="5" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="306">
@@ -37340,7 +37342,7 @@
         <v>140</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="C306" s="4">
         <v>5708.0</v>
@@ -37355,10 +37357,10 @@
     </row>
     <row r="307">
       <c r="A307" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B307" s="5" t="s">
         <v>503</v>
-      </c>
-      <c r="B307" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="C307" s="4">
         <v>5708.0</v>
@@ -37368,7 +37370,7 @@
         <v>Bạch Đằng (Hàng Xanh)</v>
       </c>
       <c r="E307" s="5" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="308">
@@ -37376,33 +37378,34 @@
         <v>503</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>483</v>
+        <v>140</v>
       </c>
       <c r="C308" s="4">
-        <v>5727.0</v>
-      </c>
-      <c r="D308" s="5" t="s">
+        <v>5708.0</v>
+      </c>
+      <c r="D308" s="5" t="str">
+        <f t="array" ref="D308">XLOOKUP(C308,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
+        <v>Bạch Đằng (Hàng Xanh)</v>
+      </c>
+      <c r="E308" s="5" t="s">
         <v>779</v>
-      </c>
-      <c r="E308" s="5" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B309" s="5" t="s">
         <v>483</v>
-      </c>
-      <c r="B309" s="5" t="s">
-        <v>503</v>
       </c>
       <c r="C309" s="4">
         <v>5727.0</v>
       </c>
       <c r="D309" s="5" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E309" s="5" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="310">
@@ -37410,48 +37413,47 @@
         <v>483</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>781</v>
+        <v>503</v>
       </c>
       <c r="C310" s="4">
         <v>5727.0</v>
       </c>
       <c r="D310" s="5" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E310" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="5" t="s">
-        <v>781</v>
+        <v>483</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>483</v>
+        <v>782</v>
       </c>
       <c r="C311" s="4">
         <v>5727.0</v>
       </c>
       <c r="D311" s="5" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E311" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="B312" s="5" t="s">
         <v>483</v>
-      </c>
-      <c r="B312" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="C312" s="4">
         <v>5727.0</v>
       </c>
-      <c r="D312" s="5" t="str">
-        <f t="array" ref="D312">XLOOKUP(C312,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Lê Văn Duyệt</v>
+      <c r="D312" s="5" t="s">
+        <v>780</v>
       </c>
       <c r="E312" s="5" t="s">
         <v>783</v>
@@ -37459,10 +37461,10 @@
     </row>
     <row r="313">
       <c r="A313" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B313" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="B313" s="5" t="s">
-        <v>483</v>
       </c>
       <c r="C313" s="4">
         <v>5727.0</v>
@@ -37472,21 +37474,22 @@
         <v>Lê Văn Duyệt</v>
       </c>
       <c r="E313" s="5" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="5" t="s">
-        <v>781</v>
+        <v>16</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>107</v>
+        <v>483</v>
       </c>
       <c r="C314" s="4">
         <v>5727.0</v>
       </c>
-      <c r="D314" s="5" t="s">
-        <v>779</v>
+      <c r="D314" s="5" t="str">
+        <f t="array" ref="D314">XLOOKUP(C314,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
+        <v>Lê Văn Duyệt</v>
       </c>
       <c r="E314" s="5" t="s">
         <v>784</v>
@@ -37494,19 +37497,19 @@
     </row>
     <row r="315">
       <c r="A315" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="B315" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="B315" s="5" t="s">
-        <v>781</v>
       </c>
       <c r="C315" s="4">
         <v>5727.0</v>
       </c>
       <c r="D315" s="5" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E315" s="5" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="316">
@@ -37514,13 +37517,13 @@
         <v>107</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>498</v>
+        <v>782</v>
       </c>
       <c r="C316" s="4">
         <v>5727.0</v>
       </c>
       <c r="D316" s="5" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E316" s="5" t="s">
         <v>785</v>
@@ -37528,19 +37531,19 @@
     </row>
     <row r="317">
       <c r="A317" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B317" s="5" t="s">
         <v>498</v>
-      </c>
-      <c r="B317" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="C317" s="4">
         <v>5727.0</v>
       </c>
       <c r="D317" s="5" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E317" s="5" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="318">
@@ -37548,13 +37551,13 @@
         <v>498</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>450</v>
+        <v>107</v>
       </c>
       <c r="C318" s="4">
         <v>5727.0</v>
       </c>
       <c r="D318" s="5" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E318" s="5" t="s">
         <v>786</v>
@@ -37562,19 +37565,19 @@
     </row>
     <row r="319">
       <c r="A319" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="B319" s="5" t="s">
         <v>450</v>
-      </c>
-      <c r="B319" s="5" t="s">
-        <v>498</v>
       </c>
       <c r="C319" s="4">
         <v>5727.0</v>
       </c>
       <c r="D319" s="5" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E319" s="5" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="320">
@@ -37582,13 +37585,13 @@
         <v>450</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>272</v>
+        <v>498</v>
       </c>
       <c r="C320" s="4">
         <v>5727.0</v>
       </c>
       <c r="D320" s="5" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E320" s="5" t="s">
         <v>787</v>
@@ -37596,19 +37599,19 @@
     </row>
     <row r="321">
       <c r="A321" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B321" s="5" t="s">
         <v>272</v>
-      </c>
-      <c r="B321" s="5" t="s">
-        <v>450</v>
       </c>
       <c r="C321" s="4">
         <v>5727.0</v>
       </c>
       <c r="D321" s="5" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E321" s="5" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="322">
@@ -37616,14 +37619,13 @@
         <v>272</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="C322" s="4">
-        <v>4527.0</v>
-      </c>
-      <c r="D322" s="5" t="str">
-        <f t="array" ref="D322">XLOOKUP(C322,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Phan Đình Phùng</v>
+        <v>5727.0</v>
+      </c>
+      <c r="D322" s="5" t="s">
+        <v>780</v>
       </c>
       <c r="E322" s="5" t="s">
         <v>788</v>
@@ -37631,10 +37633,10 @@
     </row>
     <row r="323">
       <c r="A323" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B323" s="5" t="s">
         <v>460</v>
-      </c>
-      <c r="B323" s="5" t="s">
-        <v>272</v>
       </c>
       <c r="C323" s="4">
         <v>4527.0</v>
@@ -37644,7 +37646,7 @@
         <v>Phan Đình Phùng</v>
       </c>
       <c r="E323" s="5" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="324">
@@ -37652,7 +37654,7 @@
         <v>460</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>44</v>
+        <v>272</v>
       </c>
       <c r="C324" s="4">
         <v>4527.0</v>
@@ -37667,10 +37669,10 @@
     </row>
     <row r="325">
       <c r="A325" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B325" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="B325" s="5" t="s">
-        <v>460</v>
       </c>
       <c r="C325" s="4">
         <v>4527.0</v>
@@ -37680,7 +37682,7 @@
         <v>Phan Đình Phùng</v>
       </c>
       <c r="E325" s="5" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="326">
@@ -37688,7 +37690,7 @@
         <v>44</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>74</v>
+        <v>460</v>
       </c>
       <c r="C326" s="4">
         <v>4527.0</v>
@@ -37703,10 +37705,10 @@
     </row>
     <row r="327">
       <c r="A327" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B327" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="B327" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="C327" s="4">
         <v>4527.0</v>
@@ -37716,22 +37718,22 @@
         <v>Phan Đình Phùng</v>
       </c>
       <c r="E327" s="5" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="5" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C328" s="4">
-        <v>5727.0</v>
+        <v>4527.0</v>
       </c>
       <c r="D328" s="5" t="str">
         <f t="array" ref="D328">XLOOKUP(C328,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Lê Văn Duyệt</v>
+        <v>Phan Đình Phùng</v>
       </c>
       <c r="E328" s="5" t="s">
         <v>791</v>
@@ -37739,10 +37741,10 @@
     </row>
     <row r="329">
       <c r="A329" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B329" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="B329" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="C329" s="4">
         <v>5727.0</v>
@@ -37752,7 +37754,7 @@
         <v>Lê Văn Duyệt</v>
       </c>
       <c r="E329" s="5" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="330">
@@ -37760,7 +37762,7 @@
         <v>65</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>339</v>
+        <v>16</v>
       </c>
       <c r="C330" s="4">
         <v>5727.0</v>
@@ -37775,10 +37777,10 @@
     </row>
     <row r="331">
       <c r="A331" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B331" s="5" t="s">
         <v>339</v>
-      </c>
-      <c r="B331" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="C331" s="4">
         <v>5727.0</v>
@@ -37788,42 +37790,42 @@
         <v>Lê Văn Duyệt</v>
       </c>
       <c r="E331" s="5" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B332" s="8" t="s">
-        <v>570</v>
+        <v>339</v>
+      </c>
+      <c r="B332" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="C332" s="4">
-        <v>4800.0</v>
+        <v>5727.0</v>
       </c>
       <c r="D332" s="5" t="str">
         <f t="array" ref="D332">XLOOKUP(C332,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Ung Văn Khiêm</v>
+        <v>Lê Văn Duyệt</v>
       </c>
       <c r="E332" s="5" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="8" t="s">
+      <c r="A333" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B333" s="8" t="s">
         <v>570</v>
       </c>
-      <c r="B333" s="5" t="s">
-        <v>266</v>
-      </c>
       <c r="C333" s="4">
-        <v>16363.0</v>
+        <v>4800.0</v>
       </c>
       <c r="D333" s="5" t="str">
         <f t="array" ref="D333">XLOOKUP(C333,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Điện Biên Phủ (sau vòng xoay DBP)</v>
-      </c>
-      <c r="E333" s="4" t="s">
+        <v>Ung Văn Khiêm</v>
+      </c>
+      <c r="E333" s="5" t="s">
         <v>794</v>
       </c>
     </row>
@@ -37832,32 +37834,32 @@
         <v>570</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="C334" s="4">
-        <v>9054.0</v>
+        <v>16363.0</v>
       </c>
       <c r="D334" s="5" t="str">
         <f t="array" ref="D334">XLOOKUP(C334,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Nguyễn Hữu Cảnh</v>
+        <v>Điện Biên Phủ (sau vòng xoay DBP)</v>
       </c>
       <c r="E334" s="4" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B335" s="8" t="s">
+      <c r="A335" s="8" t="s">
         <v>570</v>
       </c>
+      <c r="B335" s="5" t="s">
+        <v>196</v>
+      </c>
       <c r="C335" s="4">
-        <v>16363.0</v>
+        <v>9054.0</v>
       </c>
       <c r="D335" s="5" t="str">
         <f t="array" ref="D335">XLOOKUP(C335,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Điện Biên Phủ (sau vòng xoay DBP)</v>
+        <v>Nguyễn Hữu Cảnh</v>
       </c>
       <c r="E335" s="4" t="s">
         <v>796</v>
@@ -37865,17 +37867,17 @@
     </row>
     <row r="336">
       <c r="A336" s="5" t="s">
-        <v>430</v>
+        <v>239</v>
       </c>
       <c r="B336" s="8" t="s">
         <v>570</v>
       </c>
       <c r="C336" s="4">
-        <v>9054.0</v>
+        <v>16363.0</v>
       </c>
       <c r="D336" s="5" t="str">
         <f t="array" ref="D336">XLOOKUP(C336,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Nguyễn Hữu Cảnh</v>
+        <v>Điện Biên Phủ (sau vòng xoay DBP)</v>
       </c>
       <c r="E336" s="4" t="s">
         <v>797</v>
@@ -37883,35 +37885,35 @@
     </row>
     <row r="337">
       <c r="A337" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B337" s="5" t="s">
-        <v>239</v>
+        <v>430</v>
+      </c>
+      <c r="B337" s="8" t="s">
+        <v>570</v>
       </c>
       <c r="C337" s="4">
-        <v>16363.0</v>
+        <v>9054.0</v>
       </c>
       <c r="D337" s="5" t="str">
         <f t="array" ref="D337">XLOOKUP(C337,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Điện Biên Phủ (sau vòng xoay DBP)</v>
-      </c>
-      <c r="E337" s="5" t="s">
+        <v>Nguyễn Hữu Cảnh</v>
+      </c>
+      <c r="E337" s="4" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="5" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>430</v>
+        <v>239</v>
       </c>
       <c r="C338" s="4">
-        <v>9054.0</v>
+        <v>16363.0</v>
       </c>
       <c r="D338" s="5" t="str">
         <f t="array" ref="D338">XLOOKUP(C338,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Nguyễn Hữu Cảnh</v>
+        <v>Điện Biên Phủ (sau vòng xoay DBP)</v>
       </c>
       <c r="E338" s="5" t="s">
         <v>799</v>
@@ -37919,10 +37921,10 @@
     </row>
     <row r="339">
       <c r="A339" s="5" t="s">
-        <v>443</v>
+        <v>187</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>187</v>
+        <v>430</v>
       </c>
       <c r="C339" s="4">
         <v>9054.0</v>
@@ -37937,10 +37939,10 @@
     </row>
     <row r="340">
       <c r="A340" s="5" t="s">
-        <v>476</v>
+        <v>443</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>443</v>
+        <v>187</v>
       </c>
       <c r="C340" s="4">
         <v>9054.0</v>
@@ -37955,10 +37957,10 @@
     </row>
     <row r="341">
       <c r="A341" s="5" t="s">
-        <v>196</v>
+        <v>476</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>381</v>
+        <v>443</v>
       </c>
       <c r="C341" s="4">
         <v>9054.0</v>
@@ -37973,10 +37975,10 @@
     </row>
     <row r="342">
       <c r="A342" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B342" s="5" t="s">
         <v>381</v>
-      </c>
-      <c r="B342" s="5" t="s">
-        <v>476</v>
       </c>
       <c r="C342" s="4">
         <v>9054.0</v>
@@ -37991,17 +37993,17 @@
     </row>
     <row r="343">
       <c r="A343" s="5" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>536</v>
+        <v>476</v>
       </c>
       <c r="C343" s="4">
-        <v>6485.0</v>
+        <v>9054.0</v>
       </c>
       <c r="D343" s="5" t="str">
         <f t="array" ref="D343">XLOOKUP(C343,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Lê Đại Hành</v>
+        <v>Nguyễn Hữu Cảnh</v>
       </c>
       <c r="E343" s="5" t="s">
         <v>804</v>
@@ -38009,10 +38011,10 @@
     </row>
     <row r="344">
       <c r="A344" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B344" s="5" t="s">
         <v>536</v>
-      </c>
-      <c r="B344" s="5" t="s">
-        <v>376</v>
       </c>
       <c r="C344" s="4">
         <v>6485.0</v>
@@ -38022,7 +38024,7 @@
         <v>Lê Đại Hành</v>
       </c>
       <c r="E344" s="5" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="345">
@@ -38030,33 +38032,34 @@
         <v>536</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="C345" s="4">
-        <v>3545.0</v>
-      </c>
-      <c r="D345" s="5" t="s">
+        <v>6485.0</v>
+      </c>
+      <c r="D345" s="5" t="str">
+        <f t="array" ref="D345">XLOOKUP(C345,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
+        <v>Lê Đại Hành</v>
+      </c>
+      <c r="E345" s="5" t="s">
         <v>805</v>
-      </c>
-      <c r="E345" s="5" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="B346" s="5" t="s">
         <v>393</v>
-      </c>
-      <c r="B346" s="5" t="s">
-        <v>536</v>
       </c>
       <c r="C346" s="4">
         <v>3545.0</v>
       </c>
       <c r="D346" s="5" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E346" s="5" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="347">
@@ -38064,13 +38067,13 @@
         <v>393</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>121</v>
+        <v>536</v>
       </c>
       <c r="C347" s="4">
         <v>3545.0</v>
       </c>
       <c r="D347" s="5" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E347" s="5" t="s">
         <v>807</v>
@@ -38078,68 +38081,67 @@
     </row>
     <row r="348">
       <c r="A348" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B348" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="B348" s="5" t="s">
-        <v>393</v>
       </c>
       <c r="C348" s="4">
         <v>3545.0</v>
       </c>
       <c r="D348" s="5" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E348" s="5" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="5" t="s">
-        <v>266</v>
+        <v>121</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>133</v>
+        <v>393</v>
       </c>
       <c r="C349" s="4">
-        <v>4909.0</v>
+        <v>3545.0</v>
       </c>
       <c r="D349" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="E349" s="5" t="s">
         <v>808</v>
-      </c>
-      <c r="E349" s="5" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B350" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="B350" s="5" t="s">
-        <v>266</v>
       </c>
       <c r="C350" s="4">
         <v>4909.0</v>
       </c>
       <c r="D350" s="5" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E350" s="5" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B351" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B351" s="5" t="s">
-        <v>529</v>
-      </c>
       <c r="C351" s="4">
-        <v>16363.0</v>
-      </c>
-      <c r="D351" s="5" t="str">
-        <f t="array" ref="D351">XLOOKUP(C351,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Điện Biên Phủ (sau vòng xoay DBP)</v>
+        <v>4909.0</v>
+      </c>
+      <c r="D351" s="5" t="s">
+        <v>809</v>
       </c>
       <c r="E351" s="5" t="s">
         <v>810</v>
@@ -38147,10 +38149,10 @@
     </row>
     <row r="352">
       <c r="A352" s="5" t="s">
-        <v>811</v>
+        <v>266</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>266</v>
+        <v>529</v>
       </c>
       <c r="C352" s="4">
         <v>16363.0</v>
@@ -38160,15 +38162,15 @@
         <v>Điện Biên Phủ (sau vòng xoay DBP)</v>
       </c>
       <c r="E352" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="5" t="s">
-        <v>414</v>
+        <v>812</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>811</v>
+        <v>266</v>
       </c>
       <c r="C353" s="4">
         <v>16363.0</v>
@@ -38183,10 +38185,10 @@
     </row>
     <row r="354">
       <c r="A354" s="5" t="s">
-        <v>529</v>
+        <v>414</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>414</v>
+        <v>812</v>
       </c>
       <c r="C354" s="4">
         <v>16363.0</v>
@@ -38201,16 +38203,17 @@
     </row>
     <row r="355">
       <c r="A355" s="5" t="s">
-        <v>133</v>
+        <v>529</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>47</v>
+        <v>414</v>
       </c>
       <c r="C355" s="4">
-        <v>4909.0</v>
-      </c>
-      <c r="D355" s="5" t="s">
-        <v>808</v>
+        <v>16363.0</v>
+      </c>
+      <c r="D355" s="5" t="str">
+        <f t="array" ref="D355">XLOOKUP(C355,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
+        <v>Điện Biên Phủ (sau vòng xoay DBP)</v>
       </c>
       <c r="E355" s="5" t="s">
         <v>815</v>
@@ -38218,19 +38221,19 @@
     </row>
     <row r="356">
       <c r="A356" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B356" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="B356" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="C356" s="4">
         <v>4909.0</v>
       </c>
       <c r="D356" s="5" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E356" s="5" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="357">
@@ -38238,13 +38241,13 @@
         <v>47</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="C357" s="4">
         <v>4909.0</v>
       </c>
       <c r="D357" s="5" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E357" s="5" t="s">
         <v>816</v>
@@ -38252,19 +38255,19 @@
     </row>
     <row r="358">
       <c r="A358" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B358" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="B358" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="C358" s="4">
         <v>4909.0</v>
       </c>
       <c r="D358" s="5" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E358" s="5" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="359">
@@ -38272,14 +38275,13 @@
         <v>80</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
       <c r="C359" s="4">
-        <v>3545.0</v>
-      </c>
-      <c r="D359" s="5" t="str">
-        <f t="array" ref="D359">XLOOKUP(C359,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Nguyễn Thị Minh Khai (ĐinhTiênHoàng - Cầu Thị Nghè)</v>
+        <v>4909.0</v>
+      </c>
+      <c r="D359" s="5" t="s">
+        <v>809</v>
       </c>
       <c r="E359" s="5" t="s">
         <v>817</v>
@@ -38287,10 +38289,10 @@
     </row>
     <row r="360">
       <c r="A360" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B360" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="B360" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="C360" s="4">
         <v>3545.0</v>
@@ -38300,22 +38302,22 @@
         <v>Nguyễn Thị Minh Khai (ĐinhTiênHoàng - Cầu Thị Nghè)</v>
       </c>
       <c r="E360" s="5" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="5" t="s">
-        <v>492</v>
+        <v>167</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>529</v>
+        <v>80</v>
       </c>
       <c r="C361" s="4">
-        <v>10909.0</v>
+        <v>3545.0</v>
       </c>
       <c r="D361" s="5" t="str">
         <f t="array" ref="D361">XLOOKUP(C361,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Điện Biên Phủ (trước vòng xoay DBP)</v>
+        <v>Nguyễn Thị Minh Khai (ĐinhTiênHoàng - Cầu Thị Nghè)</v>
       </c>
       <c r="E361" s="5" t="s">
         <v>818</v>
@@ -38323,10 +38325,10 @@
     </row>
     <row r="362">
       <c r="A362" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="B362" s="5" t="s">
         <v>529</v>
-      </c>
-      <c r="B362" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="C362" s="4">
         <v>10909.0</v>
@@ -38341,10 +38343,10 @@
     </row>
     <row r="363">
       <c r="A363" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="B363" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="B363" s="5" t="s">
-        <v>492</v>
       </c>
       <c r="C363" s="4">
         <v>10909.0</v>
@@ -38359,17 +38361,17 @@
     </row>
     <row r="364">
       <c r="A364" s="5" t="s">
-        <v>529</v>
+        <v>86</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>292</v>
+        <v>492</v>
       </c>
       <c r="C364" s="4">
-        <v>3954.0</v>
+        <v>10909.0</v>
       </c>
       <c r="D364" s="5" t="str">
         <f t="array" ref="D364">XLOOKUP(C364,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Nguyễn Bỉnh Khiêm</v>
+        <v>Điện Biên Phủ (trước vòng xoay DBP)</v>
       </c>
       <c r="E364" s="5" t="s">
         <v>821</v>
@@ -38377,10 +38379,10 @@
     </row>
     <row r="365">
       <c r="A365" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="B365" s="5" t="s">
         <v>292</v>
-      </c>
-      <c r="B365" s="5" t="s">
-        <v>529</v>
       </c>
       <c r="C365" s="4">
         <v>3954.0</v>
@@ -38390,7 +38392,7 @@
         <v>Nguyễn Bỉnh Khiêm</v>
       </c>
       <c r="E365" s="5" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="366">
@@ -38398,14 +38400,14 @@
         <v>292</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="C366" s="4">
-        <v>6654.0</v>
+        <v>3954.0</v>
       </c>
       <c r="D366" s="5" t="str">
         <f t="array" ref="D366">XLOOKUP(C366,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Nguyễn Đình Chiểu</v>
+        <v>Nguyễn Bỉnh Khiêm</v>
       </c>
       <c r="E366" s="5" t="s">
         <v>822</v>
@@ -38416,14 +38418,14 @@
         <v>292</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>167</v>
+        <v>473</v>
       </c>
       <c r="C367" s="4">
-        <v>3954.0</v>
+        <v>6654.0</v>
       </c>
       <c r="D367" s="5" t="str">
         <f t="array" ref="D367">XLOOKUP(C367,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Nguyễn Bỉnh Khiêm</v>
+        <v>Nguyễn Đình Chiểu</v>
       </c>
       <c r="E367" s="5" t="s">
         <v>823</v>
@@ -38431,10 +38433,10 @@
     </row>
     <row r="368">
       <c r="A368" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B368" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="B368" s="5" t="s">
-        <v>292</v>
       </c>
       <c r="C368" s="4">
         <v>3954.0</v>
@@ -38444,7 +38446,7 @@
         <v>Nguyễn Bỉnh Khiêm</v>
       </c>
       <c r="E368" s="5" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="369">
@@ -38452,25 +38454,25 @@
         <v>167</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>824</v>
+        <v>292</v>
       </c>
       <c r="C369" s="4">
-        <v>3545.0</v>
+        <v>3954.0</v>
       </c>
       <c r="D369" s="5" t="str">
         <f t="array" ref="D369">XLOOKUP(C369,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Nguyễn Thị Minh Khai (ĐinhTiênHoàng - Cầu Thị Nghè)</v>
+        <v>Nguyễn Bỉnh Khiêm</v>
       </c>
       <c r="E369" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="5" t="s">
-        <v>824</v>
+        <v>167</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>167</v>
+        <v>825</v>
       </c>
       <c r="C370" s="4">
         <v>3545.0</v>
@@ -38480,40 +38482,40 @@
         <v>Nguyễn Thị Minh Khai (ĐinhTiênHoàng - Cầu Thị Nghè)</v>
       </c>
       <c r="E370" s="5" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="B371" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B371" s="5" t="s">
-        <v>826</v>
-      </c>
       <c r="C371" s="4">
-        <v>7909.0</v>
+        <v>3545.0</v>
       </c>
       <c r="D371" s="5" t="str">
         <f t="array" ref="D371">XLOOKUP(C371,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Nguyễn Bỉnh Khiêm</v>
+        <v>Nguyễn Thị Minh Khai (ĐinhTiênHoàng - Cầu Thị Nghè)</v>
       </c>
       <c r="E371" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="5" t="s">
-        <v>826</v>
+        <v>167</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>467</v>
+        <v>827</v>
       </c>
       <c r="C372" s="4">
-        <v>6327.0</v>
+        <v>7909.0</v>
       </c>
       <c r="D372" s="5" t="str">
         <f t="array" ref="D372">XLOOKUP(C372,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Lê Duẩn</v>
+        <v>Nguyễn Bỉnh Khiêm</v>
       </c>
       <c r="E372" s="5" t="s">
         <v>828</v>
@@ -38521,10 +38523,10 @@
     </row>
     <row r="373">
       <c r="A373" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="B373" s="5" t="s">
         <v>467</v>
-      </c>
-      <c r="B373" s="5" t="s">
-        <v>826</v>
       </c>
       <c r="C373" s="4">
         <v>6327.0</v>
@@ -38534,22 +38536,22 @@
         <v>Lê Duẩn</v>
       </c>
       <c r="E373" s="5" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="5" t="s">
-        <v>826</v>
+        <v>467</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>476</v>
+        <v>827</v>
       </c>
       <c r="C374" s="4">
-        <v>7909.0</v>
+        <v>6327.0</v>
       </c>
       <c r="D374" s="5" t="str">
         <f t="array" ref="D374">XLOOKUP(C374,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Nguyễn Bỉnh Khiêm</v>
+        <v>Lê Duẩn</v>
       </c>
       <c r="E374" s="5" t="s">
         <v>829</v>
@@ -38557,17 +38559,17 @@
     </row>
     <row r="375">
       <c r="A375" s="5" t="s">
-        <v>74</v>
+        <v>827</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>358</v>
+        <v>476</v>
       </c>
       <c r="C375" s="4">
-        <v>3545.0</v>
+        <v>7909.0</v>
       </c>
       <c r="D375" s="5" t="str">
         <f t="array" ref="D375">XLOOKUP(C375,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Nguyễn Thị Minh Khai (ĐinhTiênHoàng - Cầu Thị Nghè)</v>
+        <v>Nguyễn Bỉnh Khiêm</v>
       </c>
       <c r="E375" s="5" t="s">
         <v>830</v>
@@ -38575,10 +38577,10 @@
     </row>
     <row r="376">
       <c r="A376" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B376" s="5" t="s">
         <v>358</v>
-      </c>
-      <c r="B376" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="C376" s="4">
         <v>3545.0</v>
@@ -38588,7 +38590,7 @@
         <v>Nguyễn Thị Minh Khai (ĐinhTiênHoàng - Cầu Thị Nghè)</v>
       </c>
       <c r="E376" s="5" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="377">
@@ -38596,7 +38598,7 @@
         <v>358</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="C377" s="4">
         <v>3545.0</v>
@@ -38611,10 +38613,10 @@
     </row>
     <row r="378">
       <c r="A378" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B378" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="B378" s="5" t="s">
-        <v>358</v>
       </c>
       <c r="C378" s="4">
         <v>3545.0</v>
@@ -38624,7 +38626,7 @@
         <v>Nguyễn Thị Minh Khai (ĐinhTiênHoàng - Cầu Thị Nghè)</v>
       </c>
       <c r="E378" s="5" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="379">
@@ -38632,7 +38634,7 @@
         <v>13</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C379" s="4">
         <v>3545.0</v>
@@ -38647,10 +38649,10 @@
     </row>
     <row r="380">
       <c r="A380" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B380" s="5" t="s">
         <v>370</v>
-      </c>
-      <c r="B380" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="C380" s="4">
         <v>3545.0</v>
@@ -38660,7 +38662,7 @@
         <v>Nguyễn Thị Minh Khai (ĐinhTiênHoàng - Cầu Thị Nghè)</v>
       </c>
       <c r="E380" s="5" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="381">
@@ -38668,7 +38670,7 @@
         <v>370</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>322</v>
+        <v>13</v>
       </c>
       <c r="C381" s="4">
         <v>3545.0</v>
@@ -38683,10 +38685,10 @@
     </row>
     <row r="382">
       <c r="A382" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B382" s="5" t="s">
         <v>322</v>
-      </c>
-      <c r="B382" s="5" t="s">
-        <v>370</v>
       </c>
       <c r="C382" s="4">
         <v>3545.0</v>
@@ -38696,7 +38698,7 @@
         <v>Nguyễn Thị Minh Khai (ĐinhTiênHoàng - Cầu Thị Nghè)</v>
       </c>
       <c r="E382" s="5" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="383">
@@ -38704,7 +38706,7 @@
         <v>322</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>208</v>
+        <v>370</v>
       </c>
       <c r="C383" s="4">
         <v>3545.0</v>
@@ -38719,10 +38721,10 @@
     </row>
     <row r="384">
       <c r="A384" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B384" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="B384" s="5" t="s">
-        <v>322</v>
       </c>
       <c r="C384" s="4">
         <v>3545.0</v>
@@ -38732,7 +38734,7 @@
         <v>Nguyễn Thị Minh Khai (ĐinhTiênHoàng - Cầu Thị Nghè)</v>
       </c>
       <c r="E384" s="5" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="385">
@@ -38740,7 +38742,7 @@
         <v>208</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>551</v>
+        <v>322</v>
       </c>
       <c r="C385" s="4">
         <v>3545.0</v>
@@ -38755,10 +38757,10 @@
     </row>
     <row r="386">
       <c r="A386" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B386" s="5" t="s">
         <v>551</v>
-      </c>
-      <c r="B386" s="5" t="s">
-        <v>208</v>
       </c>
       <c r="C386" s="4">
         <v>3545.0</v>
@@ -38768,22 +38770,22 @@
         <v>Nguyễn Thị Minh Khai (ĐinhTiênHoàng - Cầu Thị Nghè)</v>
       </c>
       <c r="E386" s="5" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="5" t="s">
-        <v>86</v>
+        <v>551</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>339</v>
+        <v>208</v>
       </c>
       <c r="C387" s="4">
-        <v>6300.0</v>
+        <v>3545.0</v>
       </c>
       <c r="D387" s="5" t="str">
         <f t="array" ref="D387">XLOOKUP(C387,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Đinh Tiên Hoàng (Nguyễn Thị Minh Khai - Ngã 3)</v>
+        <v>Nguyễn Thị Minh Khai (ĐinhTiênHoàng - Cầu Thị Nghè)</v>
       </c>
       <c r="E387" s="5" t="s">
         <v>836</v>
@@ -38791,17 +38793,17 @@
     </row>
     <row r="388">
       <c r="A388" s="5" t="s">
-        <v>285</v>
+        <v>86</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>86</v>
+        <v>339</v>
       </c>
       <c r="C388" s="4">
-        <v>10909.0</v>
+        <v>6300.0</v>
       </c>
       <c r="D388" s="5" t="str">
         <f t="array" ref="D388">XLOOKUP(C388,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Điện Biên Phủ (trước vòng xoay DBP)</v>
+        <v>Đinh Tiên Hoàng (Nguyễn Thị Minh Khai - Ngã 3)</v>
       </c>
       <c r="E388" s="5" t="s">
         <v>837</v>
@@ -38809,17 +38811,17 @@
     </row>
     <row r="389">
       <c r="A389" s="5" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B389" s="5" t="s">
         <v>86</v>
       </c>
       <c r="C389" s="4">
-        <v>6300.0</v>
+        <v>10909.0</v>
       </c>
       <c r="D389" s="5" t="str">
         <f t="array" ref="D389">XLOOKUP(C389,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Đinh Tiên Hoàng (Nguyễn Thị Minh Khai - Ngã 3)</v>
+        <v>Điện Biên Phủ (trước vòng xoay DBP)</v>
       </c>
       <c r="E389" s="5" t="s">
         <v>838</v>
@@ -38827,10 +38829,10 @@
     </row>
     <row r="390">
       <c r="A390" s="5" t="s">
-        <v>824</v>
+        <v>282</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>282</v>
+        <v>86</v>
       </c>
       <c r="C390" s="4">
         <v>6300.0</v>
@@ -38845,17 +38847,17 @@
     </row>
     <row r="391">
       <c r="A391" s="5" t="s">
-        <v>467</v>
+        <v>825</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>824</v>
+        <v>282</v>
       </c>
       <c r="C391" s="4">
-        <v>9414.0</v>
+        <v>6300.0</v>
       </c>
       <c r="D391" s="5" t="str">
         <f t="array" ref="D391">XLOOKUP(C391,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Đinh Tiên Hoàng (Lê Duẩn - Nguyễn Thị Minh Khai)</v>
+        <v>Đinh Tiên Hoàng (Nguyễn Thị Minh Khai - Ngã 3)</v>
       </c>
       <c r="E391" s="5" t="s">
         <v>840</v>
@@ -38863,17 +38865,17 @@
     </row>
     <row r="392">
       <c r="A392" s="5" t="s">
-        <v>824</v>
+        <v>467</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>161</v>
+        <v>825</v>
       </c>
       <c r="C392" s="4">
-        <v>2970.0</v>
+        <v>9414.0</v>
       </c>
       <c r="D392" s="5" t="str">
         <f t="array" ref="D392">XLOOKUP(C392,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Nguyễn Thị Minh Khai (Ngã 3 - ĐinhTiênHoàng)</v>
+        <v>Đinh Tiên Hoàng (Lê Duẩn - Nguyễn Thị Minh Khai)</v>
       </c>
       <c r="E392" s="5" t="s">
         <v>841</v>
@@ -38881,10 +38883,10 @@
     </row>
     <row r="393">
       <c r="A393" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="B393" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="B393" s="5" t="s">
-        <v>824</v>
       </c>
       <c r="C393" s="4">
         <v>2970.0</v>
@@ -38894,22 +38896,22 @@
         <v>Nguyễn Thị Minh Khai (Ngã 3 - ĐinhTiênHoàng)</v>
       </c>
       <c r="E393" s="5" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="5" t="s">
-        <v>467</v>
+        <v>161</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>419</v>
+        <v>825</v>
       </c>
       <c r="C394" s="4">
-        <v>6327.0</v>
+        <v>2970.0</v>
       </c>
       <c r="D394" s="5" t="str">
         <f t="array" ref="D394">XLOOKUP(C394,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Lê Duẩn</v>
+        <v>Nguyễn Thị Minh Khai (Ngã 3 - ĐinhTiênHoàng)</v>
       </c>
       <c r="E394" s="5" t="s">
         <v>842</v>
@@ -38917,10 +38919,10 @@
     </row>
     <row r="395">
       <c r="A395" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B395" s="5" t="s">
         <v>419</v>
-      </c>
-      <c r="B395" s="5" t="s">
-        <v>467</v>
       </c>
       <c r="C395" s="4">
         <v>6327.0</v>
@@ -38930,22 +38932,22 @@
         <v>Lê Duẩn</v>
       </c>
       <c r="E395" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="5" t="s">
-        <v>455</v>
+        <v>419</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>224</v>
+        <v>467</v>
       </c>
       <c r="C396" s="4">
-        <v>4418.0</v>
+        <v>6327.0</v>
       </c>
       <c r="D396" s="5" t="str">
         <f t="array" ref="D396">XLOOKUP(C396,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Phạm Ngọc Thạch </v>
+        <v>Lê Duẩn</v>
       </c>
       <c r="E396" s="5" t="s">
         <v>843</v>
@@ -38953,10 +38955,10 @@
     </row>
     <row r="397">
       <c r="A397" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B397" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="B397" s="5" t="s">
-        <v>455</v>
       </c>
       <c r="C397" s="4">
         <v>4418.0</v>
@@ -38966,22 +38968,22 @@
         <v>Phạm Ngọc Thạch </v>
       </c>
       <c r="E397" s="5" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="5" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>224</v>
+        <v>455</v>
       </c>
       <c r="C398" s="4">
-        <v>6654.0</v>
+        <v>4418.0</v>
       </c>
       <c r="D398" s="5" t="str">
         <f t="array" ref="D398">XLOOKUP(C398,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Nguyễn Đình Chiểu</v>
+        <v>Phạm Ngọc Thạch </v>
       </c>
       <c r="E398" s="5" t="s">
         <v>844</v>
@@ -38989,28 +38991,28 @@
     </row>
     <row r="399">
       <c r="A399" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B399" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B399" s="5" t="s">
-        <v>845</v>
-      </c>
       <c r="C399" s="4">
-        <v>4418.0</v>
+        <v>6654.0</v>
       </c>
       <c r="D399" s="5" t="str">
         <f t="array" ref="D399">XLOOKUP(C399,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Phạm Ngọc Thạch </v>
+        <v>Nguyễn Đình Chiểu</v>
       </c>
       <c r="E399" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="5" t="s">
-        <v>845</v>
+        <v>224</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>224</v>
+        <v>846</v>
       </c>
       <c r="C400" s="4">
         <v>4418.0</v>
@@ -39020,21 +39022,22 @@
         <v>Phạm Ngọc Thạch </v>
       </c>
       <c r="E400" s="5" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="5" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>432</v>
+        <v>224</v>
       </c>
       <c r="C401" s="4">
-        <v>8181.0</v>
-      </c>
-      <c r="D401" s="5" t="s">
-        <v>628</v>
+        <v>4418.0</v>
+      </c>
+      <c r="D401" s="5" t="str">
+        <f t="array" ref="D401">XLOOKUP(C401,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
+        <v>Phạm Ngọc Thạch </v>
       </c>
       <c r="E401" s="5" t="s">
         <v>847</v>
@@ -39042,36 +39045,36 @@
     </row>
     <row r="402">
       <c r="A402" s="5" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>324</v>
+        <v>432</v>
       </c>
       <c r="C402" s="4">
-        <v>6545.0</v>
+        <v>8181.0</v>
       </c>
       <c r="D402" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="E402" s="5" t="s">
         <v>848</v>
-      </c>
-      <c r="E402" s="5" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="B403" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="B403" s="5" t="s">
-        <v>845</v>
       </c>
       <c r="C403" s="4">
         <v>6545.0</v>
       </c>
       <c r="D403" s="5" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E403" s="5" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="404">
@@ -39079,13 +39082,13 @@
         <v>324</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>319</v>
+        <v>846</v>
       </c>
       <c r="C404" s="4">
         <v>6545.0</v>
       </c>
       <c r="D404" s="5" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E404" s="5" t="s">
         <v>850</v>
@@ -39093,34 +39096,33 @@
     </row>
     <row r="405">
       <c r="A405" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B405" s="5" t="s">
         <v>319</v>
-      </c>
-      <c r="B405" s="5" t="s">
-        <v>324</v>
       </c>
       <c r="C405" s="4">
         <v>6545.0</v>
       </c>
       <c r="D405" s="5" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E405" s="5" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B406" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="B406" s="4" t="s">
-        <v>425</v>
-      </c>
       <c r="C406" s="4">
-        <v>5912.0</v>
-      </c>
-      <c r="D406" s="5" t="str">
-        <f t="array" ref="D406">XLOOKUP(C406,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Nguyễn Thị Minh Khai (Huyền Trân CC - Ngã 3)</v>
+        <v>6545.0</v>
+      </c>
+      <c r="D406" s="5" t="s">
+        <v>849</v>
       </c>
       <c r="E406" s="5" t="s">
         <v>851</v>
@@ -39128,10 +39130,10 @@
     </row>
     <row r="407">
       <c r="A407" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B407" s="5" t="s">
         <v>324</v>
+      </c>
+      <c r="B407" s="4" t="s">
+        <v>425</v>
       </c>
       <c r="C407" s="4">
         <v>5912.0</v>
@@ -39146,17 +39148,17 @@
     </row>
     <row r="408">
       <c r="A408" s="5" t="s">
-        <v>319</v>
+        <v>149</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>28</v>
+        <v>324</v>
       </c>
       <c r="C408" s="4">
-        <v>6327.0</v>
+        <v>5912.0</v>
       </c>
       <c r="D408" s="5" t="str">
         <f t="array" ref="D408">XLOOKUP(C408,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Lê Duẩn</v>
+        <v>Nguyễn Thị Minh Khai (Huyền Trân CC - Ngã 3)</v>
       </c>
       <c r="E408" s="5" t="s">
         <v>853</v>
@@ -39164,10 +39166,10 @@
     </row>
     <row r="409">
       <c r="A409" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B409" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B409" s="5" t="s">
-        <v>319</v>
       </c>
       <c r="C409" s="4">
         <v>6327.0</v>
@@ -39177,15 +39179,15 @@
         <v>Lê Duẩn</v>
       </c>
       <c r="E409" s="5" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B410" s="5" t="s">
         <v>319</v>
-      </c>
-      <c r="B410" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="C410" s="4">
         <v>6327.0</v>
@@ -39200,10 +39202,10 @@
     </row>
     <row r="411">
       <c r="A411" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B411" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="B411" s="5" t="s">
-        <v>319</v>
       </c>
       <c r="C411" s="4">
         <v>6327.0</v>
@@ -39213,22 +39215,22 @@
         <v>Lê Duẩn</v>
       </c>
       <c r="E411" s="5" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="5" t="s">
-        <v>621</v>
+        <v>115</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>127</v>
+        <v>319</v>
       </c>
       <c r="C412" s="4">
-        <v>7090.0</v>
+        <v>6327.0</v>
       </c>
       <c r="D412" s="5" t="str">
         <f t="array" ref="D412">XLOOKUP(C412,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Pasteur</v>
+        <v>Lê Duẩn</v>
       </c>
       <c r="E412" s="5" t="s">
         <v>855</v>
@@ -39236,10 +39238,10 @@
     </row>
     <row r="413">
       <c r="A413" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="B413" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="B413" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="C413" s="4">
         <v>7090.0</v>
@@ -39254,10 +39256,10 @@
     </row>
     <row r="414">
       <c r="A414" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B414" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="B414" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="C414" s="4">
         <v>7090.0</v>
@@ -39272,10 +39274,10 @@
     </row>
     <row r="415">
       <c r="A415" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B415" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="B415" s="5" t="s">
-        <v>432</v>
       </c>
       <c r="C415" s="4">
         <v>7090.0</v>
@@ -39290,85 +39292,85 @@
     </row>
     <row r="416">
       <c r="A416" s="5" t="s">
-        <v>559</v>
+        <v>149</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>28</v>
+        <v>432</v>
       </c>
       <c r="C416" s="4">
-        <v>3545.0</v>
-      </c>
-      <c r="D416" s="5" t="s">
+        <v>7090.0</v>
+      </c>
+      <c r="D416" s="5" t="str">
+        <f t="array" ref="D416">XLOOKUP(C416,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
+        <v>Pasteur</v>
+      </c>
+      <c r="E416" s="5" t="s">
         <v>859</v>
-      </c>
-      <c r="E416" s="5" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="B417" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B417" s="5" t="s">
-        <v>559</v>
       </c>
       <c r="C417" s="4">
         <v>3545.0</v>
       </c>
       <c r="D417" s="5" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E417" s="5" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B418" s="4" t="s">
-        <v>425</v>
+      <c r="B418" s="5" t="s">
+        <v>559</v>
       </c>
       <c r="C418" s="4">
         <v>3545.0</v>
       </c>
       <c r="D418" s="5" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E418" s="5" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="419">
-      <c r="A419" s="4" t="s">
+      <c r="A419" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B419" s="4" t="s">
         <v>425</v>
-      </c>
-      <c r="B419" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="C419" s="4">
         <v>3545.0</v>
       </c>
       <c r="D419" s="5" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E419" s="5" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="420">
-      <c r="A420" s="5" t="s">
+      <c r="A420" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B420" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B420" s="5" t="s">
-        <v>419</v>
-      </c>
       <c r="C420" s="4">
-        <v>6327.0</v>
-      </c>
-      <c r="D420" s="5" t="str">
-        <f t="array" ref="D420">XLOOKUP(C420,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Lê Duẩn</v>
+        <v>3545.0</v>
+      </c>
+      <c r="D420" s="5" t="s">
+        <v>860</v>
       </c>
       <c r="E420" s="5" t="s">
         <v>862</v>
@@ -39376,10 +39378,10 @@
     </row>
     <row r="421">
       <c r="A421" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B421" s="5" t="s">
         <v>419</v>
-      </c>
-      <c r="B421" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="C421" s="4">
         <v>6327.0</v>
@@ -39389,22 +39391,22 @@
         <v>Lê Duẩn</v>
       </c>
       <c r="E421" s="5" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="5" t="s">
-        <v>285</v>
+        <v>419</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>473</v>
+        <v>28</v>
       </c>
       <c r="C422" s="4">
-        <v>7145.0</v>
+        <v>6327.0</v>
       </c>
       <c r="D422" s="5" t="str">
         <f t="array" ref="D422">XLOOKUP(C422,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Mạc Đĩnh Chi (DBPhu - LDuan)</v>
+        <v>Lê Duẩn</v>
       </c>
       <c r="E422" s="5" t="s">
         <v>863</v>
@@ -39412,17 +39414,17 @@
     </row>
     <row r="423">
       <c r="A423" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B423" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="B423" s="5" t="s">
-        <v>232</v>
-      </c>
       <c r="C423" s="4">
-        <v>6654.0</v>
+        <v>7145.0</v>
       </c>
       <c r="D423" s="5" t="str">
         <f t="array" ref="D423">XLOOKUP(C423,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Nguyễn Đình Chiểu</v>
+        <v>Mạc Đĩnh Chi (DBPhu - LDuan)</v>
       </c>
       <c r="E423" s="5" t="s">
         <v>864</v>
@@ -39433,14 +39435,14 @@
         <v>473</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="C424" s="4">
-        <v>7145.0</v>
+        <v>6654.0</v>
       </c>
       <c r="D424" s="5" t="str">
         <f t="array" ref="D424">XLOOKUP(C424,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Mạc Đĩnh Chi (DBPhu - LDuan)</v>
+        <v>Nguyễn Đình Chiểu</v>
       </c>
       <c r="E424" s="5" t="s">
         <v>865</v>
@@ -39448,10 +39450,10 @@
     </row>
     <row r="425">
       <c r="A425" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B425" s="5" t="s">
         <v>203</v>
-      </c>
-      <c r="B425" s="5" t="s">
-        <v>161</v>
       </c>
       <c r="C425" s="4">
         <v>7145.0</v>
@@ -39466,28 +39468,28 @@
     </row>
     <row r="426">
       <c r="A426" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B426" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B426" s="9" t="s">
-        <v>573</v>
-      </c>
       <c r="C426" s="4">
-        <v>2970.0</v>
+        <v>7145.0</v>
       </c>
       <c r="D426" s="5" t="str">
         <f t="array" ref="D426">XLOOKUP(C426,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Nguyễn Thị Minh Khai (Ngã 3 - ĐinhTiênHoàng)</v>
+        <v>Mạc Đĩnh Chi (DBPhu - LDuan)</v>
       </c>
       <c r="E426" s="5" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="427">
-      <c r="A427" s="9" t="s">
+      <c r="A427" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B427" s="9" t="s">
         <v>573</v>
-      </c>
-      <c r="B427" s="5" t="s">
-        <v>161</v>
       </c>
       <c r="C427" s="4">
         <v>2970.0</v>
@@ -39497,40 +39499,40 @@
         <v>Nguyễn Thị Minh Khai (Ngã 3 - ĐinhTiênHoàng)</v>
       </c>
       <c r="E427" s="5" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="428">
-      <c r="A428" s="5" t="s">
+      <c r="A428" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="B428" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B428" s="5" t="s">
-        <v>419</v>
-      </c>
       <c r="C428" s="4">
-        <v>7145.0</v>
+        <v>2970.0</v>
       </c>
       <c r="D428" s="5" t="str">
         <f t="array" ref="D428">XLOOKUP(C428,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Mạc Đĩnh Chi (DBPhu - LDuan)</v>
+        <v>Nguyễn Thị Minh Khai (Ngã 3 - ĐinhTiênHoàng)</v>
       </c>
       <c r="E428" s="5" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="429">
-      <c r="A429" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="B429" s="9" t="s">
-        <v>573</v>
+      <c r="A429" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B429" s="5" t="s">
+        <v>419</v>
       </c>
       <c r="C429" s="4">
-        <v>5912.0</v>
+        <v>7145.0</v>
       </c>
       <c r="D429" s="5" t="str">
         <f t="array" ref="D429">XLOOKUP(C429,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
-        <v>Nguyễn Thị Minh Khai (Huyền Trân CC - Ngã 3)</v>
+        <v>Mạc Đĩnh Chi (DBPhu - LDuan)</v>
       </c>
       <c r="E429" s="5" t="s">
         <v>869</v>
@@ -39540,48 +39542,49 @@
       <c r="A430" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="B430" s="5" t="s">
-        <v>9</v>
+      <c r="B430" s="9" t="s">
+        <v>573</v>
       </c>
       <c r="C430" s="4">
-        <v>3545.0</v>
-      </c>
-      <c r="D430" s="5" t="s">
-        <v>859</v>
+        <v>5912.0</v>
+      </c>
+      <c r="D430" s="5" t="str">
+        <f t="array" ref="D430">XLOOKUP(C430,Road!$I$2:$I$81,Road!$B$2:$B$81,0)</f>
+        <v>Nguyễn Thị Minh Khai (Huyền Trân CC - Ngã 3)</v>
       </c>
       <c r="E430" s="5" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="431">
-      <c r="A431" s="5" t="s">
+      <c r="A431" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B431" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="B431" s="4" t="s">
-        <v>425</v>
       </c>
       <c r="C431" s="4">
         <v>3545.0</v>
       </c>
       <c r="D431" s="5" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E431" s="5" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B432" s="5" t="s">
-        <v>232</v>
+      <c r="B432" s="4" t="s">
+        <v>425</v>
       </c>
       <c r="C432" s="4">
         <v>3545.0</v>
       </c>
       <c r="D432" s="5" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E432" s="5" t="s">
         <v>871</v>
@@ -39589,19 +39592,19 @@
     </row>
     <row r="433">
       <c r="A433" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B433" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="B433" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="C433" s="4">
         <v>3545.0</v>
       </c>
       <c r="D433" s="5" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E433" s="5" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="434">
@@ -39609,13 +39612,13 @@
         <v>232</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>551</v>
+        <v>9</v>
       </c>
       <c r="C434" s="4">
         <v>3545.0</v>
       </c>
       <c r="D434" s="5" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E434" s="5" t="s">
         <v>872</v>
@@ -39623,27 +39626,37 @@
     </row>
     <row r="435">
       <c r="A435" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B435" s="5" t="s">
         <v>551</v>
-      </c>
-      <c r="B435" s="5" t="s">
-        <v>232</v>
       </c>
       <c r="C435" s="4">
         <v>3545.0</v>
       </c>
       <c r="D435" s="5" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E435" s="5" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="436">
-      <c r="A436" s="10"/>
-      <c r="B436" s="10"/>
-      <c r="C436" s="10"/>
-      <c r="D436" s="10"/>
-      <c r="E436" s="10"/>
+      <c r="A436" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="B436" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C436" s="4">
+        <v>3545.0</v>
+      </c>
+      <c r="D436" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="E436" s="5" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="10"/>
@@ -43572,11 +43585,18 @@
       <c r="D997" s="10"/>
       <c r="E997" s="10"/>
     </row>
+    <row r="998">
+      <c r="A998" s="10"/>
+      <c r="B998" s="10"/>
+      <c r="C998" s="10"/>
+      <c r="D998" s="10"/>
+      <c r="E998" s="10"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$E$997">
-    <sortState ref="A1:E997">
-      <sortCondition ref="E1:E997"/>
-      <sortCondition ref="A1:A997"/>
+  <autoFilter ref="$A$1:$E$998">
+    <sortState ref="A1:E998">
+      <sortCondition ref="E1:E998"/>
+      <sortCondition ref="A1:A998"/>
     </sortState>
   </autoFilter>
   <drawing r:id="rId1"/>
@@ -43605,31 +43625,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="11" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>579</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>580</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="J1" s="12">
         <v>1500.0</v>
@@ -43640,7 +43660,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C2" s="12">
         <v>4.0</v>
@@ -43659,7 +43679,7 @@
         <v>2.909090909</v>
       </c>
       <c r="H2" s="14">
-        <f t="shared" ref="H2:H78" si="2">D2/E2</f>
+        <f t="shared" ref="H2:H81" si="2">D2/E2</f>
         <v>4</v>
       </c>
       <c r="I2" s="15">
@@ -43704,7 +43724,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C4" s="12">
         <v>1.4</v>
@@ -43736,7 +43756,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C5" s="12">
         <v>1.8</v>
@@ -43768,7 +43788,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C6" s="12">
         <v>1.4</v>
@@ -43800,7 +43820,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C7" s="12">
         <v>5.0</v>
@@ -43832,7 +43852,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C8" s="12">
         <v>1.0</v>
@@ -43864,7 +43884,7 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C9" s="12">
         <v>3.1</v>
@@ -43896,7 +43916,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C10" s="12">
         <v>3.2</v>
@@ -43925,7 +43945,7 @@
     </row>
     <row r="11">
       <c r="B11" s="16" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C11" s="17">
         <v>45446.0</v>
@@ -43957,7 +43977,7 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C12" s="12">
         <v>0.2</v>
@@ -43986,7 +44006,7 @@
     </row>
     <row r="13">
       <c r="B13" s="12" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C13" s="12">
         <v>0.16</v>
@@ -44015,7 +44035,7 @@
     </row>
     <row r="14">
       <c r="B14" s="16" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C14" s="12">
         <v>0.85</v>
@@ -44047,7 +44067,7 @@
         <v>11.0</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C15" s="12">
         <v>0.8</v>
@@ -44079,7 +44099,7 @@
         <v>12.0</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C16" s="12">
         <v>2.8</v>
@@ -44108,7 +44128,7 @@
     </row>
     <row r="17">
       <c r="B17" s="16" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C17" s="12">
         <v>0.5</v>
@@ -44140,7 +44160,7 @@
         <v>13.0</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C18" s="12">
         <v>1.4</v>
@@ -44172,7 +44192,7 @@
         <v>14.0</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C19" s="12">
         <v>1.1</v>
@@ -44204,7 +44224,7 @@
         <v>15.0</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C20" s="12">
         <v>0.9</v>
@@ -44236,7 +44256,7 @@
         <v>16.0</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C21" s="12">
         <v>1.2</v>
@@ -44268,7 +44288,7 @@
         <v>17.0</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C22" s="12">
         <v>2.3</v>
@@ -44300,7 +44320,7 @@
         <v>18.0</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C23" s="12">
         <v>0.75</v>
@@ -44332,7 +44352,7 @@
         <v>19.0</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C24" s="12">
         <v>0.35</v>
@@ -44361,7 +44381,7 @@
     </row>
     <row r="25">
       <c r="B25" s="12" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C25" s="12">
         <v>2.4</v>
@@ -44393,7 +44413,7 @@
         <v>20.0</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C26" s="12">
         <v>0.75</v>
@@ -44425,7 +44445,7 @@
         <v>21.0</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C27" s="12">
         <v>4.0</v>
@@ -44454,7 +44474,7 @@
     </row>
     <row r="28">
       <c r="B28" s="12" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C28" s="12">
         <v>0.3</v>
@@ -44486,7 +44506,7 @@
         <v>22.0</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C29" s="12">
         <v>1.9</v>
@@ -44518,7 +44538,7 @@
         <v>23.0</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C30" s="12">
         <v>0.3</v>
@@ -44550,7 +44570,7 @@
         <v>24.0</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C31" s="12">
         <v>2.1</v>
@@ -44579,7 +44599,7 @@
     </row>
     <row r="32">
       <c r="B32" s="12" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C32" s="12">
         <v>1.2</v>
@@ -44611,7 +44631,7 @@
         <v>25.0</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C33" s="12">
         <v>1.0</v>
@@ -44643,7 +44663,7 @@
         <v>26.0</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C34" s="12">
         <v>0.75</v>
@@ -44672,7 +44692,7 @@
     </row>
     <row r="35">
       <c r="B35" s="12" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C35" s="12">
         <v>0.45</v>
@@ -44704,7 +44724,7 @@
         <v>27.0</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C36" s="12">
         <v>3.3</v>
@@ -44736,7 +44756,7 @@
         <v>28.0</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C37" s="12">
         <v>2.7</v>
@@ -44768,7 +44788,7 @@
         <v>29.0</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C38" s="12">
         <v>1.6</v>
@@ -44800,7 +44820,7 @@
         <v>30.0</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C39" s="12">
         <v>0.65</v>
@@ -44829,7 +44849,7 @@
     </row>
     <row r="40">
       <c r="B40" s="16" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C40" s="12">
         <v>0.95</v>
@@ -44858,7 +44878,7 @@
     </row>
     <row r="41">
       <c r="B41" s="12" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C41" s="12">
         <v>0.45</v>
@@ -44887,7 +44907,7 @@
     </row>
     <row r="42">
       <c r="B42" s="16" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C42" s="12">
         <v>0.21</v>
@@ -44916,7 +44936,7 @@
     </row>
     <row r="43">
       <c r="B43" s="12" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C43" s="18">
         <v>0.35</v>
@@ -44948,7 +44968,7 @@
         <v>31.0</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C44" s="12">
         <v>1.5</v>
@@ -44980,7 +45000,7 @@
         <v>32.0</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C45" s="12">
         <v>1.7</v>
@@ -45012,7 +45032,7 @@
         <v>33.0</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C46" s="12">
         <v>0.6</v>
@@ -45041,7 +45061,7 @@
     </row>
     <row r="47">
       <c r="B47" s="12" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C47" s="12">
         <v>1.2</v>
@@ -45073,7 +45093,7 @@
         <v>34.0</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C48" s="12">
         <v>0.45</v>
@@ -45102,7 +45122,7 @@
     </row>
     <row r="49">
       <c r="B49" s="12" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C49" s="12">
         <v>0.65</v>
@@ -45134,7 +45154,7 @@
         <v>35.0</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C50" s="12">
         <v>0.6</v>
@@ -45166,7 +45186,7 @@
         <v>36.0</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C51" s="12">
         <v>4.2</v>
@@ -45198,7 +45218,7 @@
         <v>37.0</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C52" s="12">
         <v>2.2</v>
@@ -45230,7 +45250,7 @@
         <v>38.0</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C53" s="12">
         <v>0.4</v>
@@ -45259,7 +45279,7 @@
     </row>
     <row r="54">
       <c r="B54" s="16" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C54" s="12">
         <v>0.2</v>
@@ -45291,7 +45311,7 @@
         <v>39.0</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C55" s="12">
         <v>1.0</v>
@@ -45323,7 +45343,7 @@
         <v>40.0</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C56" s="12">
         <v>1.5</v>
@@ -45355,7 +45375,7 @@
         <v>41.0</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C57" s="12">
         <v>3.9</v>
@@ -45387,7 +45407,7 @@
         <v>42.0</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C58" s="12">
         <v>1.1</v>
@@ -45419,7 +45439,7 @@
         <v>43.0</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C59" s="12">
         <v>2.0</v>
@@ -45448,7 +45468,7 @@
     </row>
     <row r="60" ht="15.0" customHeight="1">
       <c r="B60" s="12" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C60" s="12">
         <v>0.6</v>
@@ -45477,7 +45497,7 @@
     </row>
     <row r="61" ht="15.0" customHeight="1">
       <c r="B61" s="12" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C61" s="12">
         <v>0.2</v>
@@ -45509,7 +45529,7 @@
         <v>44.0</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C62" s="12">
         <v>1.0</v>
@@ -45538,7 +45558,7 @@
     </row>
     <row r="63" ht="15.0" customHeight="1">
       <c r="B63" s="12" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C63" s="12">
         <v>1.0</v>
@@ -45570,7 +45590,7 @@
         <v>45.0</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C64" s="12">
         <v>0.9</v>
@@ -45634,7 +45654,7 @@
         <v>47.0</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C66" s="12">
         <v>0.55</v>
@@ -45666,7 +45686,7 @@
         <v>48.0</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C67" s="12">
         <v>1.4</v>
@@ -45698,7 +45718,7 @@
         <v>49.0</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C68" s="12">
         <v>0.18</v>
@@ -45727,7 +45747,7 @@
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="B69" s="12" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C69" s="12">
         <v>1.9</v>
@@ -45756,7 +45776,7 @@
     </row>
     <row r="70" ht="15.0" customHeight="1">
       <c r="B70" s="12" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C70" s="12">
         <v>0.45</v>
@@ -45785,7 +45805,7 @@
     </row>
     <row r="71" ht="15.0" customHeight="1">
       <c r="B71" s="12" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C71" s="12">
         <v>0.75</v>
@@ -45817,7 +45837,7 @@
         <v>50.0</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C72" s="12">
         <v>1.0</v>
@@ -45849,7 +45869,7 @@
         <v>51.0</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C73" s="12">
         <v>1.8</v>
@@ -45881,7 +45901,7 @@
         <v>52.0</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C74" s="12">
         <v>2.1</v>
@@ -45913,7 +45933,7 @@
         <v>53.0</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C75" s="12">
         <v>1.2</v>
@@ -45942,7 +45962,7 @@
     </row>
     <row r="76">
       <c r="B76" s="12" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C76" s="12">
         <v>0.8</v>
@@ -45974,7 +45994,7 @@
         <v>54.0</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C77" s="12">
         <v>2.8</v>
@@ -46003,7 +46023,7 @@
     </row>
     <row r="78">
       <c r="B78" s="12" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C78" s="12">
         <v>1.2</v>
@@ -46035,7 +46055,7 @@
         <v>55.0</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C79" s="12">
         <v>0.7</v>
@@ -46053,7 +46073,10 @@
         <f t="shared" si="1"/>
         <v>4.727272727</v>
       </c>
-      <c r="H79" s="14"/>
+      <c r="H79" s="14">
+        <f t="shared" si="2"/>
+        <v>6.5</v>
+      </c>
       <c r="I79" s="15">
         <f t="shared" ref="I79:I81" si="4">rounddown(($J$1*$G$79)/F79)</f>
         <v>3545</v>
@@ -46082,7 +46105,10 @@
         <f t="shared" si="1"/>
         <v>9.818181818</v>
       </c>
-      <c r="H80" s="14"/>
+      <c r="H80" s="14">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
       <c r="I80" s="15">
         <f t="shared" si="4"/>
         <v>7090</v>
@@ -46093,7 +46119,7 @@
         <v>57.0</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C81" s="12">
         <v>2.8</v>
@@ -46111,7 +46137,10 @@
         <f t="shared" si="1"/>
         <v>5.818181818</v>
       </c>
-      <c r="H81" s="14"/>
+      <c r="H81" s="14">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="I81" s="15">
         <f t="shared" si="4"/>
         <v>3545</v>
